--- a/capiq_data/in_process_data/IQ305520.xlsx
+++ b/capiq_data/in_process_data/IQ305520.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\capiq_3\in_process_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\credit_rating_predictions-main\capiq_data\in_process_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE6AA085-2FC4-4FBD-9E7F-DAB94B270BF6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{937E2F71-0A82-41B2-A35A-00184AC5C740}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="98" windowWidth="14400" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="CIQWBGuid" hidden="1">"f5219bb6-fce8-4158-ae5a-a93bcd574320"</definedName>
+    <definedName name="CIQWBGuid" hidden="1">"41e9be9d-cff6-4cea-97b8-2fa4fe28af49"</definedName>
     <definedName name="CIQWBInfo" hidden="1">"{ ""CIQVersion"":""9.45.614.5792"" }"</definedName>
     <definedName name="IQ_CH">110000</definedName>
     <definedName name="IQ_CQ">5000</definedName>
@@ -41,40 +41,40 @@
     <definedName name="IQ_LTMMONTH" hidden="1">120000</definedName>
     <definedName name="IQ_MONTH">15000</definedName>
     <definedName name="IQ_MTD" hidden="1">800000</definedName>
-    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44257.9003703704</definedName>
+    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44278.8607986111</definedName>
     <definedName name="IQ_NTM">6000</definedName>
     <definedName name="IQ_QTD" hidden="1">750000</definedName>
     <definedName name="IQ_TODAY" hidden="1">0</definedName>
     <definedName name="IQ_WEEK">50000</definedName>
     <definedName name="IQ_YTD">3000</definedName>
     <definedName name="IQ_YTDMONTH" hidden="1">130000</definedName>
-    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$42</definedName>
-    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$42</definedName>
-    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$42</definedName>
-    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$42</definedName>
-    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$42</definedName>
-    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$42</definedName>
-    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$42</definedName>
-    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$42</definedName>
-    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$42</definedName>
-    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$42</definedName>
-    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$42</definedName>
-    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$42</definedName>
-    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$42</definedName>
-    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$42</definedName>
-    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$42</definedName>
-    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$42</definedName>
-    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$42</definedName>
-    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$42</definedName>
-    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$42</definedName>
-    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$42</definedName>
-    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$42</definedName>
-    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$42</definedName>
-    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$42</definedName>
-    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$42</definedName>
-    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$42</definedName>
-    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$42</definedName>
-    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$42</definedName>
+    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$82</definedName>
+    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$82</definedName>
+    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$82</definedName>
+    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$82</definedName>
+    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$82</definedName>
+    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$82</definedName>
+    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$82</definedName>
+    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$82</definedName>
+    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$82</definedName>
+    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$82</definedName>
+    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$82</definedName>
+    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$82</definedName>
+    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$82</definedName>
+    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$82</definedName>
+    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$82</definedName>
+    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$82</definedName>
+    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$82</definedName>
+    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$82</definedName>
+    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$82</definedName>
+    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$82</definedName>
+    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$82</definedName>
+    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$82</definedName>
+    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$82</definedName>
+    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$82</definedName>
+    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$82</definedName>
+    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$82</definedName>
+    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$82</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>Date</t>
   </si>
@@ -173,6 +173,126 @@
   </si>
   <si>
     <t>IQ_NI</t>
+  </si>
+  <si>
+    <t>FQ42000</t>
+  </si>
+  <si>
+    <t>FQ12001</t>
+  </si>
+  <si>
+    <t>FQ22001</t>
+  </si>
+  <si>
+    <t>FQ32001</t>
+  </si>
+  <si>
+    <t>FQ42001</t>
+  </si>
+  <si>
+    <t>FQ12002</t>
+  </si>
+  <si>
+    <t>FQ22002</t>
+  </si>
+  <si>
+    <t>FQ32002</t>
+  </si>
+  <si>
+    <t>FQ42002</t>
+  </si>
+  <si>
+    <t>FQ12003</t>
+  </si>
+  <si>
+    <t>FQ22003</t>
+  </si>
+  <si>
+    <t>FQ32003</t>
+  </si>
+  <si>
+    <t>FQ42003</t>
+  </si>
+  <si>
+    <t>FQ12004</t>
+  </si>
+  <si>
+    <t>FQ22004</t>
+  </si>
+  <si>
+    <t>FQ32004</t>
+  </si>
+  <si>
+    <t>FQ42004</t>
+  </si>
+  <si>
+    <t>FQ12005</t>
+  </si>
+  <si>
+    <t>FQ22005</t>
+  </si>
+  <si>
+    <t>FQ32005</t>
+  </si>
+  <si>
+    <t>FQ42005</t>
+  </si>
+  <si>
+    <t>FQ12006</t>
+  </si>
+  <si>
+    <t>FQ22006</t>
+  </si>
+  <si>
+    <t>FQ32006</t>
+  </si>
+  <si>
+    <t>FQ42006</t>
+  </si>
+  <si>
+    <t>FQ12007</t>
+  </si>
+  <si>
+    <t>FQ22007</t>
+  </si>
+  <si>
+    <t>FQ32007</t>
+  </si>
+  <si>
+    <t>FQ42007</t>
+  </si>
+  <si>
+    <t>FQ12008</t>
+  </si>
+  <si>
+    <t>FQ22008</t>
+  </si>
+  <si>
+    <t>FQ32008</t>
+  </si>
+  <si>
+    <t>FQ42008</t>
+  </si>
+  <si>
+    <t>FQ12009</t>
+  </si>
+  <si>
+    <t>FQ22009</t>
+  </si>
+  <si>
+    <t>FQ32009</t>
+  </si>
+  <si>
+    <t>FQ42009</t>
+  </si>
+  <si>
+    <t>FQ12010</t>
+  </si>
+  <si>
+    <t>FQ22010</t>
+  </si>
+  <si>
+    <t>FQ32010</t>
   </si>
   <si>
     <t>FQ42010</t>
@@ -639,7 +759,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA42"/>
+  <dimension ref="A1:AA82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -733,34 +853,34 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
-        <v>40543</v>
+        <v>36891</v>
       </c>
       <c r="B2" t="s">
         <v>27</v>
       </c>
       <c r="C2">
-        <v>183.685</v>
+        <v>74.572000000000003</v>
       </c>
       <c r="D2">
-        <v>421.346</v>
+        <v>196.59899999999999</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>304.53899999999999</v>
+        <v>140.73699999999999</v>
       </c>
       <c r="G2">
-        <v>951.48099999999999</v>
+        <v>89.466999999999999</v>
       </c>
       <c r="H2">
-        <v>9495.3330000000005</v>
+        <v>4513.9409999999998</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>568.41700000000003</v>
+        <v>156.00299999999999</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -772,161 +892,161 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>205.76900000000001</v>
+        <v>100.90300000000001</v>
       </c>
       <c r="O2">
-        <v>774.18600000000004</v>
+        <v>256.90600000000001</v>
       </c>
       <c r="P2">
-        <v>568.41700000000003</v>
+        <v>156.00299999999999</v>
       </c>
       <c r="Q2">
-        <v>-57.226999999999997</v>
+        <v>-15.132</v>
       </c>
       <c r="R2">
-        <v>40543</v>
+        <v>36891</v>
       </c>
       <c r="S2">
-        <v>4900</v>
+        <v>4600</v>
       </c>
       <c r="T2">
-        <v>8721.1470000000008</v>
+        <v>4257.0349999999999</v>
       </c>
       <c r="U2">
-        <v>456.25200000000001</v>
+        <v>89.466999999999999</v>
       </c>
       <c r="V2">
-        <v>271.50700000000001</v>
+        <v>148.453</v>
       </c>
       <c r="W2">
         <v>0</v>
       </c>
       <c r="X2">
-        <v>-302.98899999999998</v>
+        <v>-53.197000000000003</v>
       </c>
       <c r="Y2">
         <v>0</v>
       </c>
       <c r="Z2">
-        <v>0</v>
+        <v>-26.516999999999999</v>
       </c>
       <c r="AA2">
-        <v>183.685</v>
+        <v>74.572000000000003</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
-        <v>40633</v>
+        <v>36981</v>
       </c>
       <c r="B3" t="s">
         <v>28</v>
       </c>
       <c r="C3">
-        <v>206.108</v>
+        <v>74.635000000000005</v>
       </c>
       <c r="D3">
-        <v>433.11700000000002</v>
+        <v>197.839</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>288.96100000000001</v>
+        <v>130.94200000000001</v>
       </c>
       <c r="G3">
-        <v>1016.8819999999999</v>
+        <v>40.476999999999997</v>
       </c>
       <c r="H3">
-        <v>9435.5210000000006</v>
+        <v>4488.0919999999996</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>434.31400000000002</v>
+        <v>143.59299999999999</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>-105.535</v>
+        <v>-0.74</v>
       </c>
       <c r="N3">
-        <v>238.33699999999999</v>
+        <v>114.455</v>
       </c>
       <c r="O3">
-        <v>672.65099999999995</v>
+        <v>258.048</v>
       </c>
       <c r="P3">
-        <v>461.88200000000001</v>
+        <v>180.26300000000001</v>
       </c>
       <c r="Q3">
-        <v>-311.14699999999999</v>
+        <v>-48.99</v>
       </c>
       <c r="R3">
-        <v>40633</v>
+        <v>36981</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="T3">
-        <v>8762.8700000000008</v>
+        <v>4230.0439999999999</v>
       </c>
       <c r="U3">
-        <v>145.10499999999999</v>
+        <v>40.476999999999997</v>
       </c>
       <c r="V3">
-        <v>264.81900000000002</v>
+        <v>110.3</v>
       </c>
       <c r="W3">
-        <v>-193.505</v>
+        <v>-59.445</v>
       </c>
       <c r="X3">
-        <v>-291.524</v>
+        <v>-86.436000000000007</v>
       </c>
       <c r="Y3">
         <v>0</v>
       </c>
       <c r="Z3">
-        <v>102.279</v>
+        <v>-15.199</v>
       </c>
       <c r="AA3">
-        <v>206.108</v>
+        <v>74.635000000000005</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
-        <v>40724</v>
+        <v>37072</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
       </c>
       <c r="C4">
-        <v>206.44399999999999</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>429.87599999999998</v>
+        <v>0</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>290.86200000000002</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>775.09299999999996</v>
+        <v>50.761000000000003</v>
       </c>
       <c r="H4">
-        <v>9272.3359999999993</v>
+        <v>4513.5619999999999</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>443.66</v>
+        <v>143.59299999999999</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -938,78 +1058,78 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>233.72800000000001</v>
+        <v>114.955</v>
       </c>
       <c r="O4">
-        <v>677.38800000000003</v>
+        <v>258.548</v>
       </c>
       <c r="P4">
-        <v>449.51900000000001</v>
+        <v>149.79599999999999</v>
       </c>
       <c r="Q4">
-        <v>-0.61799999999999999</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>40724</v>
+        <v>37072</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
       <c r="T4">
-        <v>8594.9480000000003</v>
+        <v>4255.0140000000001</v>
       </c>
       <c r="U4">
-        <v>144.48699999999999</v>
+        <v>50.761000000000003</v>
       </c>
       <c r="V4">
-        <v>317.64499999999998</v>
+        <v>0</v>
       </c>
       <c r="W4">
-        <v>-220.108</v>
+        <v>0</v>
       </c>
       <c r="X4">
-        <v>-408.93900000000002</v>
+        <v>0</v>
       </c>
       <c r="Y4">
         <v>0</v>
       </c>
       <c r="Z4">
-        <v>-1.274</v>
+        <v>0</v>
       </c>
       <c r="AA4">
-        <v>206.44399999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
-        <v>40816</v>
+        <v>37164</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
       </c>
       <c r="C5">
-        <v>191.13900000000001</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>460.83199999999999</v>
+        <v>214.09700000000001</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>322.25200000000001</v>
+        <v>145.08000000000001</v>
       </c>
       <c r="G5">
-        <v>627.08199999999999</v>
+        <v>288.39299999999997</v>
       </c>
       <c r="H5">
-        <v>9085.5429999999997</v>
+        <v>4773.6459999999997</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>416.21699999999998</v>
+        <v>143.59299999999999</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -1021,37 +1141,37 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>247.096</v>
+        <v>122.464</v>
       </c>
       <c r="O5">
-        <v>663.31299999999999</v>
+        <v>266.05700000000002</v>
       </c>
       <c r="P5">
-        <v>418.851</v>
+        <v>149.05799999999999</v>
       </c>
       <c r="Q5">
-        <v>16.245999999999999</v>
+        <v>0</v>
       </c>
       <c r="R5">
-        <v>40816</v>
+        <v>37164</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
       <c r="T5">
-        <v>8422.23</v>
+        <v>4507.5889999999999</v>
       </c>
       <c r="U5">
-        <v>160.733</v>
+        <v>288.39299999999997</v>
       </c>
       <c r="V5">
-        <v>326.32900000000001</v>
+        <v>0</v>
       </c>
       <c r="W5">
-        <v>-218.63499999999999</v>
+        <v>0</v>
       </c>
       <c r="X5">
-        <v>-401.44900000000001</v>
+        <v>0</v>
       </c>
       <c r="Y5">
         <v>0</v>
@@ -1060,42 +1180,42 @@
         <v>0</v>
       </c>
       <c r="AA5">
-        <v>191.13900000000001</v>
+        <v>83.603999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
-        <v>40908</v>
+        <v>37256</v>
       </c>
       <c r="B6" t="s">
         <v>31</v>
       </c>
       <c r="C6">
-        <v>220.15100000000001</v>
+        <v>84.195999999999998</v>
       </c>
       <c r="D6">
-        <v>453.99200000000002</v>
+        <v>203.53899999999999</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>333.50799999999998</v>
+        <v>140.71899999999999</v>
       </c>
       <c r="G6">
-        <v>541.70100000000002</v>
+        <v>49.347000000000001</v>
       </c>
       <c r="H6">
-        <v>8932.5619999999999</v>
+        <v>4625.8789999999999</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>398.31400000000002</v>
+        <v>143.55199999999999</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -1104,78 +1224,78 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>210.96600000000001</v>
+        <v>118.143</v>
       </c>
       <c r="O6">
-        <v>609.28</v>
+        <v>261.69499999999999</v>
       </c>
       <c r="P6">
-        <v>398.31400000000002</v>
+        <v>168.55199999999999</v>
       </c>
       <c r="Q6">
-        <v>-21.725000000000001</v>
+        <v>-239.04599999999999</v>
       </c>
       <c r="R6">
-        <v>40908</v>
+        <v>37256</v>
       </c>
       <c r="S6">
-        <v>5000</v>
+        <v>4400</v>
       </c>
       <c r="T6">
-        <v>8323.2819999999992</v>
+        <v>4364.1840000000002</v>
       </c>
       <c r="U6">
-        <v>139.00800000000001</v>
+        <v>49.347000000000001</v>
       </c>
       <c r="V6">
-        <v>294.65899999999999</v>
+        <v>118.506</v>
       </c>
       <c r="W6">
-        <v>-213.99799999999999</v>
+        <v>0</v>
       </c>
       <c r="X6">
-        <v>-336.63400000000001</v>
+        <v>-249.11500000000001</v>
       </c>
       <c r="Y6">
         <v>0</v>
       </c>
       <c r="Z6">
-        <v>0</v>
+        <v>38.716000000000001</v>
       </c>
       <c r="AA6">
-        <v>220.15100000000001</v>
+        <v>84.195999999999998</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
-        <v>40999</v>
+        <v>37346</v>
       </c>
       <c r="B7" t="s">
         <v>32</v>
       </c>
       <c r="C7">
-        <v>205.852</v>
+        <v>87.454999999999998</v>
       </c>
       <c r="D7">
-        <v>448.95</v>
+        <v>215.21799999999999</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>297.23899999999998</v>
+        <v>147.43700000000001</v>
       </c>
       <c r="G7">
-        <v>1034.912</v>
+        <v>192.28100000000001</v>
       </c>
       <c r="H7">
-        <v>9406.3119999999999</v>
+        <v>4893.2470000000003</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>346.14400000000001</v>
+        <v>115.572</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -1184,81 +1304,81 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>-24.884</v>
+        <v>-40.475999999999999</v>
       </c>
       <c r="N7">
-        <v>716.23500000000001</v>
+        <v>111.95699999999999</v>
       </c>
       <c r="O7">
-        <v>1062.3789999999999</v>
+        <v>227.529</v>
       </c>
       <c r="P7">
-        <v>372.97899999999998</v>
+        <v>128.07599999999999</v>
       </c>
       <c r="Q7">
-        <v>481.07100000000003</v>
+        <v>142.934</v>
       </c>
       <c r="R7">
-        <v>40999</v>
+        <v>37346</v>
       </c>
       <c r="S7">
         <v>0</v>
       </c>
       <c r="T7">
-        <v>8343.9330000000009</v>
+        <v>4665.7179999999998</v>
       </c>
       <c r="U7">
-        <v>620.07899999999995</v>
+        <v>192.28100000000001</v>
       </c>
       <c r="V7">
-        <v>279.49</v>
+        <v>152.149</v>
       </c>
       <c r="W7">
-        <v>-243.24299999999999</v>
+        <v>-96.26</v>
       </c>
       <c r="X7">
-        <v>256.11700000000002</v>
+        <v>147.602</v>
       </c>
       <c r="Y7">
         <v>0</v>
       </c>
       <c r="Z7">
-        <v>0</v>
+        <v>-7.258</v>
       </c>
       <c r="AA7">
-        <v>205.852</v>
+        <v>87.454999999999998</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
-        <v>41090</v>
+        <v>37437</v>
       </c>
       <c r="B8" t="s">
         <v>33</v>
       </c>
       <c r="C8">
-        <v>198.143</v>
+        <v>80.718000000000004</v>
       </c>
       <c r="D8">
-        <v>464.38900000000001</v>
+        <v>212.35599999999999</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>321.50599999999997</v>
+        <v>145.24600000000001</v>
       </c>
       <c r="G8">
-        <v>829.62099999999998</v>
+        <v>172.16399999999999</v>
       </c>
       <c r="H8">
-        <v>9178.9470000000001</v>
+        <v>4885.7780000000002</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>346.14400000000001</v>
+        <v>115.572</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -1270,78 +1390,78 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>249.40899999999999</v>
+        <v>106.202</v>
       </c>
       <c r="O8">
-        <v>595.553</v>
+        <v>221.774</v>
       </c>
       <c r="P8">
-        <v>368.72800000000001</v>
+        <v>122.399</v>
       </c>
       <c r="Q8">
-        <v>-181.60400000000001</v>
+        <v>-20.117000000000001</v>
       </c>
       <c r="R8">
-        <v>41090</v>
+        <v>37437</v>
       </c>
       <c r="S8">
         <v>0</v>
       </c>
       <c r="T8">
-        <v>8583.3940000000002</v>
+        <v>4664.0039999999999</v>
       </c>
       <c r="U8">
-        <v>438.47500000000002</v>
+        <v>172.16399999999999</v>
       </c>
       <c r="V8">
-        <v>326.28699999999998</v>
+        <v>143.21799999999999</v>
       </c>
       <c r="W8">
-        <v>-240.19399999999999</v>
+        <v>0</v>
       </c>
       <c r="X8">
-        <v>-438.21899999999999</v>
+        <v>-109.74299999999999</v>
       </c>
       <c r="Y8">
         <v>0</v>
       </c>
       <c r="Z8">
-        <v>0</v>
+        <v>-8.7100000000000009</v>
       </c>
       <c r="AA8">
-        <v>198.143</v>
+        <v>80.718000000000004</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
-        <v>41182</v>
+        <v>37529</v>
       </c>
       <c r="B9" t="s">
         <v>34</v>
       </c>
       <c r="C9">
-        <v>263.892</v>
+        <v>83.350999999999999</v>
       </c>
       <c r="D9">
-        <v>489.82400000000001</v>
+        <v>222.869</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>348.34899999999999</v>
+        <v>149.631</v>
       </c>
       <c r="G9">
-        <v>935.54600000000005</v>
+        <v>276.255</v>
       </c>
       <c r="H9">
-        <v>9288.1200000000008</v>
+        <v>5037.9650000000001</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>346.14400000000001</v>
+        <v>115.572</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -1353,81 +1473,81 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>244.505</v>
+        <v>142.55600000000001</v>
       </c>
       <c r="O9">
-        <v>590.649</v>
+        <v>258.12799999999999</v>
       </c>
       <c r="P9">
-        <v>347.94299999999998</v>
+        <v>121.58199999999999</v>
       </c>
       <c r="Q9">
-        <v>97.277000000000001</v>
+        <v>104.09099999999999</v>
       </c>
       <c r="R9">
-        <v>41182</v>
+        <v>37529</v>
       </c>
       <c r="S9">
         <v>0</v>
       </c>
       <c r="T9">
-        <v>8697.4709999999995</v>
+        <v>4779.8370000000004</v>
       </c>
       <c r="U9">
-        <v>535.75199999999995</v>
+        <v>276.255</v>
       </c>
       <c r="V9">
-        <v>349.97800000000001</v>
+        <v>164.738</v>
       </c>
       <c r="W9">
-        <v>0</v>
+        <v>-98.867000000000004</v>
       </c>
       <c r="X9">
-        <v>-189.88399999999999</v>
+        <v>14.961</v>
       </c>
       <c r="Y9">
         <v>0</v>
       </c>
       <c r="Z9">
-        <v>0</v>
+        <v>-21.033999999999999</v>
       </c>
       <c r="AA9">
-        <v>263.892</v>
+        <v>83.350999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
-        <v>41274</v>
+        <v>37621</v>
       </c>
       <c r="B10" t="s">
         <v>35</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>67.213999999999999</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>202.34200000000001</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>123.327</v>
       </c>
       <c r="G10">
-        <v>428.23399999999998</v>
+        <v>103.124</v>
       </c>
       <c r="H10">
-        <v>8793.4030000000002</v>
+        <v>4843.6620000000003</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>335.82799999999997</v>
+        <v>115.867</v>
       </c>
       <c r="K10">
-        <v>133</v>
+        <v>0</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -1436,164 +1556,164 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>334.71100000000001</v>
+        <v>129.327</v>
       </c>
       <c r="O10">
-        <v>670.53899999999999</v>
+        <v>245.19399999999999</v>
       </c>
       <c r="P10">
-        <v>468.82799999999997</v>
+        <v>115.867</v>
       </c>
       <c r="Q10">
-        <v>0</v>
+        <v>-173.131</v>
       </c>
       <c r="R10">
-        <v>41274</v>
+        <v>37621</v>
       </c>
       <c r="S10">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="T10">
-        <v>8122.8639999999996</v>
+        <v>4598.4679999999998</v>
       </c>
       <c r="U10">
-        <v>17.239000000000001</v>
+        <v>103.124</v>
       </c>
       <c r="V10">
-        <v>0</v>
+        <v>128.85599999999999</v>
       </c>
       <c r="W10">
         <v>0</v>
       </c>
       <c r="X10">
-        <v>0</v>
+        <v>-264.54000000000002</v>
       </c>
       <c r="Y10">
         <v>0</v>
       </c>
       <c r="Z10">
-        <v>0</v>
+        <v>37.002000000000002</v>
       </c>
       <c r="AA10">
-        <v>0</v>
+        <v>67.213999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
-        <v>41364</v>
+        <v>37711</v>
       </c>
       <c r="B11" t="s">
         <v>36</v>
       </c>
       <c r="C11">
-        <v>211.22300000000001</v>
+        <v>76.638999999999996</v>
       </c>
       <c r="D11">
-        <v>482.54300000000001</v>
+        <v>209.68600000000001</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>332.154</v>
+        <v>135.857</v>
       </c>
       <c r="G11">
-        <v>796.81700000000001</v>
+        <v>70.438000000000002</v>
       </c>
       <c r="H11">
-        <v>9101.5509999999995</v>
+        <v>4765.1940000000004</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>81.222999999999999</v>
+        <v>76.082999999999998</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>-326.18599999999998</v>
+        <v>-26.756</v>
       </c>
       <c r="N11">
-        <v>266.32499999999999</v>
+        <v>167.53899999999999</v>
       </c>
       <c r="O11">
-        <v>347.548</v>
+        <v>243.62200000000001</v>
       </c>
       <c r="P11">
-        <v>142.41900000000001</v>
+        <v>114.111</v>
       </c>
       <c r="Q11">
-        <v>381.01299999999998</v>
+        <v>-48.106999999999999</v>
       </c>
       <c r="R11">
-        <v>41364</v>
+        <v>37711</v>
       </c>
       <c r="S11">
         <v>0</v>
       </c>
       <c r="T11">
-        <v>8754.0030000000006</v>
+        <v>4521.5720000000001</v>
       </c>
       <c r="U11">
-        <v>398.25200000000001</v>
+        <v>55.017000000000003</v>
       </c>
       <c r="V11">
-        <v>309.339</v>
+        <v>146.91499999999999</v>
       </c>
       <c r="W11">
-        <v>-263.733</v>
+        <v>-98.391999999999996</v>
       </c>
       <c r="X11">
-        <v>113.93899999999999</v>
+        <v>-165.959</v>
       </c>
       <c r="Y11">
         <v>0</v>
       </c>
       <c r="Z11">
-        <v>0</v>
+        <v>-10.302</v>
       </c>
       <c r="AA11">
-        <v>211.22300000000001</v>
+        <v>76.638999999999996</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
-        <v>41455</v>
+        <v>37802</v>
       </c>
       <c r="B12" t="s">
         <v>37</v>
       </c>
       <c r="C12">
-        <v>260.46300000000002</v>
+        <v>84.296999999999997</v>
       </c>
       <c r="D12">
-        <v>498.47899999999998</v>
+        <v>218.69499999999999</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>355.90800000000002</v>
+        <v>142.06100000000001</v>
       </c>
       <c r="G12">
-        <v>815.43600000000004</v>
+        <v>56.033999999999999</v>
       </c>
       <c r="H12">
-        <v>9094.598</v>
+        <v>4740.085</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>81.222999999999999</v>
+        <v>76.082999999999998</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -1602,78 +1722,78 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>249.16800000000001</v>
+        <v>168.24299999999999</v>
       </c>
       <c r="O12">
-        <v>330.39100000000002</v>
+        <v>244.32599999999999</v>
       </c>
       <c r="P12">
-        <v>111.688</v>
+        <v>106.94</v>
       </c>
       <c r="Q12">
-        <v>12.657999999999999</v>
+        <v>-13.654</v>
       </c>
       <c r="R12">
-        <v>41455</v>
+        <v>37802</v>
       </c>
       <c r="S12">
         <v>0</v>
       </c>
       <c r="T12">
-        <v>8764.2070000000003</v>
+        <v>4495.759</v>
       </c>
       <c r="U12">
-        <v>410.91</v>
+        <v>41.363</v>
       </c>
       <c r="V12">
-        <v>363.23</v>
+        <v>146.964</v>
       </c>
       <c r="W12">
-        <v>-267.26400000000001</v>
+        <v>-97.216999999999999</v>
       </c>
       <c r="X12">
-        <v>-286.77499999999998</v>
+        <v>-134.87100000000001</v>
       </c>
       <c r="Y12">
         <v>0</v>
       </c>
       <c r="Z12">
-        <v>0</v>
+        <v>-12.497</v>
       </c>
       <c r="AA12">
-        <v>260.46300000000002</v>
+        <v>84.296999999999997</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
-        <v>41547</v>
+        <v>37894</v>
       </c>
       <c r="B13" t="s">
         <v>38</v>
       </c>
       <c r="C13">
-        <v>284.19799999999998</v>
+        <v>89.747</v>
       </c>
       <c r="D13">
-        <v>526.226</v>
+        <v>227.76499999999999</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>378.423</v>
+        <v>148.81399999999999</v>
       </c>
       <c r="G13">
-        <v>477.40600000000001</v>
+        <v>61.131999999999998</v>
       </c>
       <c r="H13">
-        <v>9149.94</v>
+        <v>4742.2449999999999</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>81.222999999999999</v>
+        <v>76.355000000000004</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1685,81 +1805,81 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>261.928</v>
+        <v>157.93899999999999</v>
       </c>
       <c r="O13">
-        <v>343.15100000000001</v>
+        <v>234.024</v>
       </c>
       <c r="P13">
-        <v>100.11799999999999</v>
+        <v>82.302000000000007</v>
       </c>
       <c r="Q13">
-        <v>-353.94499999999999</v>
+        <v>3.94</v>
       </c>
       <c r="R13">
-        <v>41547</v>
+        <v>37894</v>
       </c>
       <c r="S13">
         <v>0</v>
       </c>
       <c r="T13">
-        <v>8806.7890000000007</v>
+        <v>4508.2209999999995</v>
       </c>
       <c r="U13">
-        <v>56.965000000000003</v>
+        <v>45.302999999999997</v>
       </c>
       <c r="V13">
-        <v>367.09399999999999</v>
+        <v>174.71199999999999</v>
       </c>
       <c r="W13">
-        <v>-267.303</v>
+        <v>-97.212000000000003</v>
       </c>
       <c r="X13">
-        <v>-280.55700000000002</v>
+        <v>-113.631</v>
       </c>
       <c r="Y13">
         <v>0</v>
       </c>
       <c r="Z13">
-        <v>-29.751999999999999</v>
+        <v>-10.898999999999999</v>
       </c>
       <c r="AA13">
-        <v>284.19799999999998</v>
+        <v>89.747</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
-        <v>41639</v>
+        <v>37986</v>
       </c>
       <c r="B14" t="s">
         <v>39</v>
       </c>
       <c r="C14">
-        <v>296.56900000000002</v>
+        <v>85.97</v>
       </c>
       <c r="D14">
-        <v>532.077</v>
+        <v>224.86</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>407.67899999999997</v>
+        <v>142.86000000000001</v>
       </c>
       <c r="G14">
-        <v>447.30799999999999</v>
+        <v>204.833</v>
       </c>
       <c r="H14">
-        <v>9876.2659999999996</v>
+        <v>4968.0690000000004</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>88.953000000000003</v>
+        <v>76.03</v>
       </c>
       <c r="K14">
-        <v>750.1</v>
+        <v>0</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1768,164 +1888,164 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>968.45799999999997</v>
+        <v>131.10300000000001</v>
       </c>
       <c r="O14">
-        <v>1057.4110000000001</v>
+        <v>207.13300000000001</v>
       </c>
       <c r="P14">
-        <v>839.053</v>
+        <v>76.03</v>
       </c>
       <c r="Q14">
-        <v>-37.795999999999999</v>
+        <v>159.53</v>
       </c>
       <c r="R14">
-        <v>41639</v>
+        <v>37986</v>
       </c>
       <c r="S14">
-        <v>5200</v>
+        <v>4500</v>
       </c>
       <c r="T14">
-        <v>8818.8549999999996</v>
+        <v>4760.9359999999997</v>
       </c>
       <c r="U14">
-        <v>19.169</v>
+        <v>204.833</v>
       </c>
       <c r="V14">
-        <v>390.67599999999999</v>
+        <v>140.03299999999999</v>
       </c>
       <c r="W14">
-        <v>-293.161</v>
+        <v>0</v>
       </c>
       <c r="X14">
-        <v>437.233</v>
+        <v>149.916</v>
       </c>
       <c r="Y14">
         <v>0</v>
       </c>
       <c r="Z14">
-        <v>-75.287999999999997</v>
+        <v>-15.614000000000001</v>
       </c>
       <c r="AA14">
-        <v>296.56900000000002</v>
+        <v>85.97</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
-        <v>41729</v>
+        <v>38077</v>
       </c>
       <c r="B15" t="s">
         <v>40</v>
       </c>
       <c r="C15">
-        <v>227.196</v>
+        <v>69.066999999999993</v>
       </c>
       <c r="D15">
-        <v>534.72799999999995</v>
+        <v>223.49700000000001</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>368.00900000000001</v>
+        <v>140.898</v>
       </c>
       <c r="G15">
-        <v>310.66899999999998</v>
+        <v>319.63499999999999</v>
       </c>
       <c r="H15">
-        <v>9682.5820000000003</v>
+        <v>4960.38</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>62.747</v>
+        <v>35.22</v>
       </c>
       <c r="K15">
-        <v>372</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>-328</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>-50.81</v>
+        <v>-26.716999999999999</v>
       </c>
       <c r="N15">
-        <v>620.01099999999997</v>
+        <v>148.59299999999999</v>
       </c>
       <c r="O15">
-        <v>682.75800000000004</v>
+        <v>183.81299999999999</v>
       </c>
       <c r="P15">
-        <v>460.15</v>
+        <v>49.313000000000002</v>
       </c>
       <c r="Q15">
-        <v>81.942999999999998</v>
+        <v>114.80200000000001</v>
       </c>
       <c r="R15">
-        <v>41729</v>
+        <v>38077</v>
       </c>
       <c r="S15">
         <v>0</v>
       </c>
       <c r="T15">
-        <v>8999.8240000000005</v>
+        <v>4776.567</v>
       </c>
       <c r="U15">
-        <v>101.11199999999999</v>
+        <v>319.63499999999999</v>
       </c>
       <c r="V15">
-        <v>330.709</v>
+        <v>146.62899999999999</v>
       </c>
       <c r="W15">
-        <v>-294.226</v>
+        <v>-100.765</v>
       </c>
       <c r="X15">
-        <v>-421.90899999999999</v>
+        <v>-101.361</v>
       </c>
       <c r="Y15">
         <v>0</v>
       </c>
       <c r="Z15">
-        <v>0</v>
+        <v>-0.40300000000000002</v>
       </c>
       <c r="AA15">
-        <v>227.196</v>
+        <v>69.066999999999993</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
-        <v>41820</v>
+        <v>38168</v>
       </c>
       <c r="B16" t="s">
         <v>41</v>
       </c>
       <c r="C16">
-        <v>276.834</v>
+        <v>92.36</v>
       </c>
       <c r="D16">
-        <v>542.53599999999994</v>
+        <v>232.22300000000001</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>394.67599999999999</v>
+        <v>150.149</v>
       </c>
       <c r="G16">
-        <v>595.91099999999994</v>
+        <v>421.44799999999998</v>
       </c>
       <c r="H16">
-        <v>9946.4570000000003</v>
+        <v>5041.8720000000003</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>67.644999999999996</v>
+        <v>35.22</v>
       </c>
       <c r="K16">
-        <v>322</v>
+        <v>0</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1934,78 +2054,78 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>567.327</v>
+        <v>156.959</v>
       </c>
       <c r="O16">
-        <v>634.97199999999998</v>
+        <v>192.179</v>
       </c>
       <c r="P16">
-        <v>396.98700000000002</v>
+        <v>35.296999999999997</v>
       </c>
       <c r="Q16">
-        <v>286.87099999999998</v>
+        <v>101.813</v>
       </c>
       <c r="R16">
-        <v>41820</v>
+        <v>38168</v>
       </c>
       <c r="S16">
         <v>0</v>
       </c>
       <c r="T16">
-        <v>9311.4850000000006</v>
+        <v>4849.6930000000002</v>
       </c>
       <c r="U16">
-        <v>387.983</v>
+        <v>421.44799999999998</v>
       </c>
       <c r="V16">
-        <v>395.33699999999999</v>
+        <v>181.292</v>
       </c>
       <c r="W16">
-        <v>0</v>
+        <v>-101.563</v>
       </c>
       <c r="X16">
-        <v>-36.685000000000002</v>
+        <v>-25.463999999999999</v>
       </c>
       <c r="Y16">
         <v>0</v>
       </c>
       <c r="Z16">
-        <v>0</v>
+        <v>-2.528</v>
       </c>
       <c r="AA16">
-        <v>276.834</v>
+        <v>92.36</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
-        <v>41912</v>
+        <v>38260</v>
       </c>
       <c r="B17" t="s">
         <v>42</v>
       </c>
       <c r="C17">
-        <v>293.459</v>
+        <v>97.515000000000001</v>
       </c>
       <c r="D17">
-        <v>581.65599999999995</v>
+        <v>237.98400000000001</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>423.08800000000002</v>
+        <v>155.67400000000001</v>
       </c>
       <c r="G17">
-        <v>98.251999999999995</v>
+        <v>475.28</v>
       </c>
       <c r="H17">
-        <v>9624.4680000000008</v>
+        <v>5077.9129999999996</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>67.646000000000001</v>
+        <v>35.22</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -2017,78 +2137,78 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>264.447</v>
+        <v>161.59899999999999</v>
       </c>
       <c r="O17">
-        <v>332.09300000000002</v>
+        <v>196.81899999999999</v>
       </c>
       <c r="P17">
-        <v>71.632000000000005</v>
+        <v>35.26</v>
       </c>
       <c r="Q17">
-        <v>-289.73099999999999</v>
+        <v>53.832000000000001</v>
       </c>
       <c r="R17">
-        <v>41912</v>
+        <v>38260</v>
       </c>
       <c r="S17">
         <v>0</v>
       </c>
       <c r="T17">
-        <v>9292.375</v>
+        <v>4881.0940000000001</v>
       </c>
       <c r="U17">
-        <v>98.251999999999995</v>
+        <v>475.28</v>
       </c>
       <c r="V17">
-        <v>427.10300000000001</v>
+        <v>149.67599999999999</v>
       </c>
       <c r="W17">
         <v>0</v>
       </c>
       <c r="X17">
-        <v>-624.37400000000002</v>
+        <v>-76.260999999999996</v>
       </c>
       <c r="Y17">
         <v>0</v>
       </c>
       <c r="Z17">
-        <v>0</v>
+        <v>3.65</v>
       </c>
       <c r="AA17">
-        <v>293.459</v>
+        <v>97.515000000000001</v>
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
-        <v>42004</v>
+        <v>38352</v>
       </c>
       <c r="B18" t="s">
         <v>43</v>
       </c>
       <c r="C18">
-        <v>346.71499999999997</v>
+        <v>107.271</v>
       </c>
       <c r="D18">
-        <v>570.14300000000003</v>
+        <v>283.61700000000002</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>437.76600000000002</v>
+        <v>168.33099999999999</v>
       </c>
       <c r="G18">
-        <v>187.71199999999999</v>
+        <v>366.255</v>
       </c>
       <c r="H18">
-        <v>9818.6759999999995</v>
+        <v>5204.79</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>64.364000000000004</v>
+        <v>145.614</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -2100,78 +2220,78 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>247.14099999999999</v>
+        <v>145.43100000000001</v>
       </c>
       <c r="O18">
-        <v>311.505</v>
+        <v>291.04500000000002</v>
       </c>
       <c r="P18">
-        <v>64.364000000000004</v>
+        <v>145.614</v>
       </c>
       <c r="Q18">
-        <v>89.46</v>
+        <v>-109.02500000000001</v>
       </c>
       <c r="R18">
-        <v>42004</v>
+        <v>38352</v>
       </c>
       <c r="S18">
-        <v>5300</v>
+        <v>4149</v>
       </c>
       <c r="T18">
-        <v>9507.1710000000003</v>
+        <v>4913.7449999999999</v>
       </c>
       <c r="U18">
-        <v>187.71199999999999</v>
+        <v>366.255</v>
       </c>
       <c r="V18">
-        <v>438.94400000000002</v>
+        <v>139.06700000000001</v>
       </c>
       <c r="W18">
-        <v>-303.875</v>
+        <v>0</v>
       </c>
       <c r="X18">
-        <v>-142.447</v>
+        <v>-94.518000000000001</v>
       </c>
       <c r="Y18">
         <v>0</v>
       </c>
       <c r="Z18">
-        <v>0</v>
+        <v>3.3420000000000001</v>
       </c>
       <c r="AA18">
-        <v>346.71499999999997</v>
+        <v>107.271</v>
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
-        <v>42094</v>
+        <v>38442</v>
       </c>
       <c r="B19" t="s">
         <v>44</v>
       </c>
       <c r="C19">
-        <v>281.78100000000001</v>
+        <v>96.411000000000001</v>
       </c>
       <c r="D19">
-        <v>581.06299999999999</v>
+        <v>256.62</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>409.05099999999999</v>
+        <v>160.69</v>
       </c>
       <c r="G19">
-        <v>152.797</v>
+        <v>354.43299999999999</v>
       </c>
       <c r="H19">
-        <v>9772.0169999999998</v>
+        <v>5178.3649999999998</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>46.557000000000002</v>
+        <v>149.58000000000001</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -2180,84 +2300,84 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>-5.5369999999999999</v>
+        <v>-12.023999999999999</v>
       </c>
       <c r="N19">
-        <v>276.53899999999999</v>
+        <v>142.60400000000001</v>
       </c>
       <c r="O19">
-        <v>323.096</v>
+        <v>292.18400000000003</v>
       </c>
       <c r="P19">
-        <v>58.656999999999996</v>
+        <v>152.73500000000001</v>
       </c>
       <c r="Q19">
-        <v>-34.914999999999999</v>
+        <v>-11.821999999999999</v>
       </c>
       <c r="R19">
-        <v>42094</v>
+        <v>38442</v>
       </c>
       <c r="S19">
         <v>0</v>
       </c>
       <c r="T19">
-        <v>9448.9210000000003</v>
+        <v>4886.1809999999996</v>
       </c>
       <c r="U19">
-        <v>152.797</v>
+        <v>354.43299999999999</v>
       </c>
       <c r="V19">
-        <v>382.49200000000002</v>
+        <v>148.97499999999999</v>
       </c>
       <c r="W19">
-        <v>-305.863</v>
+        <v>-103.86</v>
       </c>
       <c r="X19">
-        <v>-322.81400000000002</v>
+        <v>-114.268</v>
       </c>
       <c r="Y19">
         <v>0</v>
       </c>
       <c r="Z19">
-        <v>0</v>
+        <v>-2.1680000000000001</v>
       </c>
       <c r="AA19">
-        <v>281.78100000000001</v>
+        <v>96.411000000000001</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
-        <v>42185</v>
+        <v>38533</v>
       </c>
       <c r="B20" t="s">
         <v>45</v>
       </c>
       <c r="C20">
-        <v>326.40499999999997</v>
+        <v>108.26600000000001</v>
       </c>
       <c r="D20">
-        <v>596.09500000000003</v>
+        <v>260.298</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>434.99799999999999</v>
+        <v>165.43899999999999</v>
       </c>
       <c r="G20">
-        <v>20.256</v>
+        <v>390.43099999999998</v>
       </c>
       <c r="H20">
-        <v>9634.7579999999998</v>
+        <v>5256.643</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>46.482999999999997</v>
+        <v>149.77699999999999</v>
       </c>
       <c r="K20">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -2266,78 +2386,78 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>282.61399999999998</v>
+        <v>154.143</v>
       </c>
       <c r="O20">
-        <v>329.09699999999998</v>
+        <v>303.92</v>
       </c>
       <c r="P20">
-        <v>58.683</v>
+        <v>151.75700000000001</v>
       </c>
       <c r="Q20">
-        <v>-132.541</v>
+        <v>35.997999999999998</v>
       </c>
       <c r="R20">
-        <v>42185</v>
+        <v>38533</v>
       </c>
       <c r="S20">
         <v>0</v>
       </c>
       <c r="T20">
-        <v>9305.6610000000001</v>
+        <v>4952.723</v>
       </c>
       <c r="U20">
-        <v>20.256</v>
+        <v>390.43099999999998</v>
       </c>
       <c r="V20">
-        <v>457.13299999999998</v>
+        <v>186.88499999999999</v>
       </c>
       <c r="W20">
-        <v>-355.77</v>
+        <v>-105.096</v>
       </c>
       <c r="X20">
-        <v>-495.39499999999998</v>
+        <v>-36.155999999999999</v>
       </c>
       <c r="Y20">
         <v>0</v>
       </c>
       <c r="Z20">
-        <v>0</v>
+        <v>-5.7919999999999998</v>
       </c>
       <c r="AA20">
-        <v>326.40499999999997</v>
+        <v>108.26600000000001</v>
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
-        <v>42277</v>
+        <v>38625</v>
       </c>
       <c r="B21" t="s">
         <v>46</v>
       </c>
       <c r="C21">
-        <v>339.56799999999998</v>
+        <v>128.34399999999999</v>
       </c>
       <c r="D21">
-        <v>631.47500000000002</v>
+        <v>283.53899999999999</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>466.78899999999999</v>
+        <v>186.85499999999999</v>
       </c>
       <c r="G21">
-        <v>35.667999999999999</v>
+        <v>531.774</v>
       </c>
       <c r="H21">
-        <v>9654.8150000000005</v>
+        <v>5471.6279999999997</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>55.125</v>
+        <v>214.334</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -2349,78 +2469,78 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>296.08199999999999</v>
+        <v>163.29400000000001</v>
       </c>
       <c r="O21">
-        <v>351.20699999999999</v>
+        <v>377.62799999999999</v>
       </c>
       <c r="P21">
-        <v>55.725000000000001</v>
+        <v>215.227</v>
       </c>
       <c r="Q21">
-        <v>15.412000000000001</v>
+        <v>141.34299999999999</v>
       </c>
       <c r="R21">
-        <v>42277</v>
+        <v>38625</v>
       </c>
       <c r="S21">
         <v>0</v>
       </c>
       <c r="T21">
-        <v>9303.6080000000002</v>
+        <v>5094</v>
       </c>
       <c r="U21">
-        <v>35.667999999999999</v>
+        <v>531.774</v>
       </c>
       <c r="V21">
-        <v>472.18900000000002</v>
+        <v>172.48</v>
       </c>
       <c r="W21">
-        <v>-355.69299999999998</v>
+        <v>-113.239</v>
       </c>
       <c r="X21">
-        <v>-358.63499999999999</v>
+        <v>74.501999999999995</v>
       </c>
       <c r="Y21">
         <v>0</v>
       </c>
       <c r="Z21">
-        <v>0</v>
+        <v>7.09</v>
       </c>
       <c r="AA21">
-        <v>339.56799999999998</v>
+        <v>128.34399999999999</v>
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
-        <v>42369</v>
+        <v>38717</v>
       </c>
       <c r="B22" t="s">
         <v>47</v>
       </c>
       <c r="C22">
-        <v>363.49</v>
+        <v>123.372</v>
       </c>
       <c r="D22">
-        <v>637.9</v>
+        <v>276.74599999999998</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>500.19099999999997</v>
+        <v>185.91800000000001</v>
       </c>
       <c r="G22">
-        <v>104.285</v>
+        <v>493.50099999999998</v>
       </c>
       <c r="H22">
-        <v>9778.232</v>
+        <v>5552.4859999999999</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>319.01600000000002</v>
+        <v>113.95</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -2432,78 +2552,78 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>261.57799999999997</v>
+        <v>100.41800000000001</v>
       </c>
       <c r="O22">
-        <v>580.59400000000005</v>
+        <v>309.00700000000001</v>
       </c>
       <c r="P22">
-        <v>319.01600000000002</v>
+        <v>113.95</v>
       </c>
       <c r="Q22">
-        <v>68.617000000000004</v>
+        <v>-38.273000000000003</v>
       </c>
       <c r="R22">
-        <v>42369</v>
+        <v>38717</v>
       </c>
       <c r="S22">
-        <v>5300</v>
+        <v>4030</v>
       </c>
       <c r="T22">
-        <v>9197.6380000000008</v>
+        <v>5243.4790000000003</v>
       </c>
       <c r="U22">
-        <v>104.285</v>
+        <v>493.50099999999998</v>
       </c>
       <c r="V22">
-        <v>436.46499999999997</v>
+        <v>183.708</v>
       </c>
       <c r="W22">
-        <v>0</v>
+        <v>-116.465</v>
       </c>
       <c r="X22">
-        <v>-214.43899999999999</v>
+        <v>-45.223999999999997</v>
       </c>
       <c r="Y22">
         <v>0</v>
       </c>
       <c r="Z22">
-        <v>0</v>
+        <v>1.9610000000000001</v>
       </c>
       <c r="AA22">
-        <v>363.49</v>
+        <v>123.372</v>
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
-        <v>42460</v>
+        <v>38807</v>
       </c>
       <c r="B23" t="s">
         <v>48</v>
       </c>
       <c r="C23">
-        <v>315.87299999999999</v>
+        <v>114.21599999999999</v>
       </c>
       <c r="D23">
-        <v>626.35</v>
+        <v>281.98399999999998</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>453.06400000000002</v>
+        <v>179.00700000000001</v>
       </c>
       <c r="G23">
-        <v>305.70499999999998</v>
+        <v>382.32900000000001</v>
       </c>
       <c r="H23">
-        <v>10064.347</v>
+        <v>5470.6040000000003</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>313.608</v>
+        <v>138.441</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -2512,81 +2632,81 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>-5.952</v>
+        <v>-12.103999999999999</v>
       </c>
       <c r="N23">
-        <v>298.226</v>
+        <v>156.65799999999999</v>
       </c>
       <c r="O23">
-        <v>611.83399999999995</v>
+        <v>295.09899999999999</v>
       </c>
       <c r="P23">
-        <v>336.66399999999999</v>
+        <v>141.94</v>
       </c>
       <c r="Q23">
-        <v>201.42</v>
+        <v>-111.172</v>
       </c>
       <c r="R23">
-        <v>42460</v>
+        <v>38807</v>
       </c>
       <c r="S23">
         <v>0</v>
       </c>
       <c r="T23">
-        <v>9452.5130000000008</v>
+        <v>5175.5050000000001</v>
       </c>
       <c r="U23">
-        <v>305.70499999999998</v>
+        <v>382.32900000000001</v>
       </c>
       <c r="V23">
-        <v>440.98</v>
+        <v>162.833</v>
       </c>
       <c r="W23">
-        <v>-357.33499999999998</v>
+        <v>-116.26900000000001</v>
       </c>
       <c r="X23">
-        <v>-76.266000000000005</v>
+        <v>-205.143</v>
       </c>
       <c r="Y23">
         <v>0</v>
       </c>
       <c r="Z23">
-        <v>0</v>
+        <v>2.359</v>
       </c>
       <c r="AA23">
-        <v>315.87299999999999</v>
+        <v>114.21599999999999</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
-        <v>42551</v>
+        <v>38898</v>
       </c>
       <c r="B24" t="s">
         <v>49</v>
       </c>
       <c r="C24">
-        <v>356.65899999999999</v>
+        <v>128.86199999999999</v>
       </c>
       <c r="D24">
-        <v>644.41499999999996</v>
+        <v>300.98500000000001</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>472.411</v>
+        <v>194.44</v>
       </c>
       <c r="G24">
-        <v>260.12400000000002</v>
+        <v>983.63</v>
       </c>
       <c r="H24">
-        <v>9997.1370000000006</v>
+        <v>6100.1360000000004</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>418.59899999999999</v>
+        <v>138.48500000000001</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -2598,78 +2718,78 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>324.005</v>
+        <v>174.125</v>
       </c>
       <c r="O24">
-        <v>742.60400000000004</v>
+        <v>312.61</v>
       </c>
       <c r="P24">
-        <v>436.83499999999998</v>
+        <v>140.83699999999999</v>
       </c>
       <c r="Q24">
-        <v>-45.581000000000003</v>
+        <v>597.94299999999998</v>
       </c>
       <c r="R24">
-        <v>42551</v>
+        <v>38898</v>
       </c>
       <c r="S24">
         <v>0</v>
       </c>
       <c r="T24">
-        <v>9254.5329999999994</v>
+        <v>5787.5259999999998</v>
       </c>
       <c r="U24">
-        <v>260.12400000000002</v>
+        <v>983.63</v>
       </c>
       <c r="V24">
-        <v>523.73400000000004</v>
+        <v>204.40799999999999</v>
       </c>
       <c r="W24">
-        <v>-371.71</v>
+        <v>-122.029</v>
       </c>
       <c r="X24">
-        <v>-444.54500000000002</v>
+        <v>472.16699999999997</v>
       </c>
       <c r="Y24">
         <v>0</v>
       </c>
       <c r="Z24">
-        <v>67.42</v>
+        <v>5.3840000000000003</v>
       </c>
       <c r="AA24">
-        <v>356.65899999999999</v>
+        <v>128.86199999999999</v>
       </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
-        <v>42643</v>
+        <v>38990</v>
       </c>
       <c r="B25" t="s">
         <v>50</v>
       </c>
       <c r="C25">
-        <v>367.30500000000001</v>
+        <v>81.180999999999997</v>
       </c>
       <c r="D25">
-        <v>680.38499999999999</v>
+        <v>373.87799999999999</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>501.75799999999998</v>
+        <v>246.25800000000001</v>
       </c>
       <c r="G25">
-        <v>57.213000000000001</v>
+        <v>124.119</v>
       </c>
       <c r="H25">
-        <v>9865.7690000000002</v>
+        <v>10854.856</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>422.18099999999998</v>
+        <v>1412.0530000000001</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -2681,81 +2801,81 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>354.44499999999999</v>
+        <v>281.87599999999998</v>
       </c>
       <c r="O25">
-        <v>776.62599999999998</v>
+        <v>1807.915</v>
       </c>
       <c r="P25">
-        <v>430.892</v>
+        <v>1426.5329999999999</v>
       </c>
       <c r="Q25">
-        <v>-202.911</v>
+        <v>-859.51099999999997</v>
       </c>
       <c r="R25">
-        <v>42643</v>
+        <v>38990</v>
       </c>
       <c r="S25">
         <v>0</v>
       </c>
       <c r="T25">
-        <v>9089.143</v>
+        <v>9046.9410000000007</v>
       </c>
       <c r="U25">
-        <v>57.213000000000001</v>
+        <v>124.119</v>
       </c>
       <c r="V25">
-        <v>515.32600000000002</v>
+        <v>214.911</v>
       </c>
       <c r="W25">
-        <v>-369.71800000000002</v>
+        <v>0</v>
       </c>
       <c r="X25">
-        <v>-550.54300000000001</v>
+        <v>-804.63599999999997</v>
       </c>
       <c r="Y25">
-        <v>0</v>
+        <v>6.1020000000000003</v>
       </c>
       <c r="Z25">
-        <v>0</v>
+        <v>0.33600000000000002</v>
       </c>
       <c r="AA25">
-        <v>367.30500000000001</v>
+        <v>81.180999999999997</v>
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
-        <v>42735</v>
+        <v>39082</v>
       </c>
       <c r="B26" t="s">
         <v>51</v>
       </c>
       <c r="C26">
-        <v>413.73899999999998</v>
+        <v>-10.233000000000001</v>
       </c>
       <c r="D26">
-        <v>662.53</v>
+        <v>436.06400000000002</v>
       </c>
       <c r="E26">
         <v>0</v>
       </c>
       <c r="F26">
-        <v>517.36400000000003</v>
+        <v>274.14499999999998</v>
       </c>
       <c r="G26">
-        <v>183.68799999999999</v>
+        <v>555.58399999999995</v>
       </c>
       <c r="H26">
-        <v>10130.338</v>
+        <v>11198.473</v>
       </c>
       <c r="I26">
         <v>0</v>
       </c>
       <c r="J26">
-        <v>390.74900000000002</v>
+        <v>1466.2840000000001</v>
       </c>
       <c r="K26">
-        <v>0</v>
+        <v>345</v>
       </c>
       <c r="L26">
         <v>0</v>
@@ -2764,164 +2884,164 @@
         <v>0</v>
       </c>
       <c r="N26">
-        <v>297.935</v>
+        <v>570.88400000000001</v>
       </c>
       <c r="O26">
-        <v>688.68399999999997</v>
+        <v>2182.248</v>
       </c>
       <c r="P26">
-        <v>390.74900000000002</v>
+        <v>1811.2840000000001</v>
       </c>
       <c r="Q26">
-        <v>144.09</v>
+        <v>426.42899999999997</v>
       </c>
       <c r="R26">
-        <v>42735</v>
+        <v>39082</v>
       </c>
       <c r="S26">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="T26">
-        <v>9441.6540000000005</v>
+        <v>9016.2250000000004</v>
       </c>
       <c r="U26">
-        <v>183.68799999999999</v>
+        <v>535.68399999999997</v>
       </c>
       <c r="V26">
-        <v>465.29599999999999</v>
+        <v>193.24799999999999</v>
       </c>
       <c r="W26">
         <v>0</v>
       </c>
       <c r="X26">
-        <v>-77.471999999999994</v>
+        <v>309.517</v>
       </c>
       <c r="Y26">
         <v>0</v>
       </c>
       <c r="Z26">
-        <v>0</v>
+        <v>4.9950000000000001</v>
       </c>
       <c r="AA26">
-        <v>413.73899999999998</v>
+        <v>-10.233000000000001</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
-        <v>42825</v>
+        <v>39172</v>
       </c>
       <c r="B27" t="s">
         <v>52</v>
       </c>
       <c r="C27">
-        <v>342.44200000000001</v>
+        <v>59.777999999999999</v>
       </c>
       <c r="D27">
-        <v>664.83799999999997</v>
+        <v>435.41</v>
       </c>
       <c r="E27">
         <v>0</v>
       </c>
       <c r="F27">
-        <v>481.93599999999998</v>
+        <v>267.40899999999999</v>
       </c>
       <c r="G27">
-        <v>120.85899999999999</v>
+        <v>90.7</v>
       </c>
       <c r="H27">
-        <v>10083.911</v>
+        <v>10619.147000000001</v>
       </c>
       <c r="I27">
         <v>0</v>
       </c>
       <c r="J27">
-        <v>394.58499999999998</v>
+        <v>963.54</v>
       </c>
       <c r="K27">
-        <v>0</v>
+        <v>132</v>
       </c>
       <c r="L27">
         <v>0</v>
       </c>
       <c r="M27">
-        <v>-0.42</v>
+        <v>-662.60400000000004</v>
       </c>
       <c r="N27">
-        <v>295.81900000000002</v>
+        <v>298.38200000000001</v>
       </c>
       <c r="O27">
-        <v>690.404</v>
+        <v>1497.7429999999999</v>
       </c>
       <c r="P27">
-        <v>395.86200000000002</v>
+        <v>1164.056</v>
       </c>
       <c r="Q27">
-        <v>-62.808999999999997</v>
+        <v>-465.09500000000003</v>
       </c>
       <c r="R27">
-        <v>42825</v>
+        <v>39172</v>
       </c>
       <c r="S27">
         <v>0</v>
       </c>
       <c r="T27">
-        <v>9393.5069999999996</v>
+        <v>9121.4040000000005</v>
       </c>
       <c r="U27">
-        <v>120.85899999999999</v>
+        <v>90.7</v>
       </c>
       <c r="V27">
-        <v>459.08300000000003</v>
+        <v>195.44300000000001</v>
       </c>
       <c r="W27">
-        <v>-408.334</v>
+        <v>-149.125</v>
       </c>
       <c r="X27">
-        <v>-403.78800000000001</v>
+        <v>-616.01</v>
       </c>
       <c r="Y27">
-        <v>0</v>
+        <v>6.55</v>
       </c>
       <c r="Z27">
-        <v>0</v>
+        <v>4.7770000000000001</v>
       </c>
       <c r="AA27">
-        <v>342.44200000000001</v>
+        <v>59.777999999999999</v>
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
-        <v>42916</v>
+        <v>39263</v>
       </c>
       <c r="B28" t="s">
         <v>53</v>
       </c>
       <c r="C28">
-        <v>353.702</v>
+        <v>77.103999999999999</v>
       </c>
       <c r="D28">
-        <v>686.03800000000001</v>
+        <v>450.01600000000002</v>
       </c>
       <c r="E28">
         <v>0</v>
       </c>
       <c r="F28">
-        <v>503.46</v>
+        <v>280.52699999999999</v>
       </c>
       <c r="G28">
-        <v>358.26600000000002</v>
+        <v>66.948999999999998</v>
       </c>
       <c r="H28">
-        <v>10365.727000000001</v>
+        <v>10477.108</v>
       </c>
       <c r="I28">
         <v>0</v>
       </c>
       <c r="J28">
-        <v>419.92099999999999</v>
+        <v>966.80700000000002</v>
       </c>
       <c r="K28">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="L28">
         <v>0</v>
@@ -2930,78 +3050,78 @@
         <v>0</v>
       </c>
       <c r="N28">
-        <v>323.77999999999997</v>
+        <v>302.339</v>
       </c>
       <c r="O28">
-        <v>743.70100000000002</v>
+        <v>1415.3530000000001</v>
       </c>
       <c r="P28">
-        <v>420.77800000000002</v>
+        <v>1051.018</v>
       </c>
       <c r="Q28">
-        <v>237.35900000000001</v>
+        <v>-23.846</v>
       </c>
       <c r="R28">
-        <v>42916</v>
+        <v>39263</v>
       </c>
       <c r="S28">
         <v>0</v>
       </c>
       <c r="T28">
-        <v>9622.0259999999998</v>
+        <v>9061.7549999999992</v>
       </c>
       <c r="U28">
-        <v>358.26600000000002</v>
+        <v>46.743000000000002</v>
       </c>
       <c r="V28">
-        <v>506.24400000000003</v>
+        <v>273.322</v>
       </c>
       <c r="W28">
-        <v>0</v>
+        <v>-147.696</v>
       </c>
       <c r="X28">
-        <v>-141.435</v>
+        <v>-246.97</v>
       </c>
       <c r="Y28">
-        <v>0</v>
+        <v>6.6710000000000003</v>
       </c>
       <c r="Z28">
-        <v>0</v>
+        <v>0.98899999999999999</v>
       </c>
       <c r="AA28">
-        <v>353.702</v>
+        <v>77.103999999999999</v>
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
-        <v>43008</v>
+        <v>39355</v>
       </c>
       <c r="B29" t="s">
         <v>54</v>
       </c>
       <c r="C29">
-        <v>356.67399999999998</v>
+        <v>152.76599999999999</v>
       </c>
       <c r="D29">
-        <v>703.57899999999995</v>
+        <v>468.387</v>
       </c>
       <c r="E29">
         <v>0</v>
       </c>
       <c r="F29">
-        <v>512.96</v>
+        <v>302.86700000000002</v>
       </c>
       <c r="G29">
-        <v>694.23299999999995</v>
+        <v>189.43</v>
       </c>
       <c r="H29">
-        <v>10765.694</v>
+        <v>10629.623</v>
       </c>
       <c r="I29">
         <v>0</v>
       </c>
       <c r="J29">
-        <v>1425.422</v>
+        <v>993.65200000000004</v>
       </c>
       <c r="K29">
         <v>0</v>
@@ -3013,78 +3133,78 @@
         <v>0</v>
       </c>
       <c r="N29">
-        <v>380.85199999999998</v>
+        <v>226.63900000000001</v>
       </c>
       <c r="O29">
-        <v>1806.2739999999999</v>
+        <v>1364.9929999999999</v>
       </c>
       <c r="P29">
-        <v>1425.854</v>
+        <v>1004.5069999999999</v>
       </c>
       <c r="Q29">
-        <v>331.83300000000003</v>
+        <v>121.843</v>
       </c>
       <c r="R29">
-        <v>43008</v>
+        <v>39355</v>
       </c>
       <c r="S29">
         <v>0</v>
       </c>
       <c r="T29">
-        <v>8959.42</v>
+        <v>9264.6299999999992</v>
       </c>
       <c r="U29">
-        <v>694.23299999999995</v>
+        <v>168.58600000000001</v>
       </c>
       <c r="V29">
-        <v>537.19200000000001</v>
+        <v>283.92399999999998</v>
       </c>
       <c r="W29">
-        <v>-409.61</v>
+        <v>-150.69300000000001</v>
       </c>
       <c r="X29">
-        <v>-49.389000000000003</v>
+        <v>-53.005000000000003</v>
       </c>
       <c r="Y29">
-        <v>0</v>
+        <v>7.0759999999999996</v>
       </c>
       <c r="Z29">
-        <v>0</v>
+        <v>0.253</v>
       </c>
       <c r="AA29">
-        <v>356.67399999999998</v>
+        <v>152.76599999999999</v>
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
-        <v>43100</v>
+        <v>39447</v>
       </c>
       <c r="B30" t="s">
         <v>55</v>
       </c>
       <c r="C30">
-        <v>389.399</v>
+        <v>167.887</v>
       </c>
       <c r="D30">
-        <v>682.12800000000004</v>
+        <v>462.00700000000001</v>
       </c>
       <c r="E30">
         <v>0</v>
       </c>
       <c r="F30">
-        <v>530.24900000000002</v>
+        <v>307.274</v>
       </c>
       <c r="G30">
-        <v>456.053</v>
+        <v>245.44399999999999</v>
       </c>
       <c r="H30">
-        <v>10732.892</v>
+        <v>10643.102000000001</v>
       </c>
       <c r="I30">
         <v>0</v>
       </c>
       <c r="J30">
-        <v>1431.3219999999999</v>
+        <v>1069.9280000000001</v>
       </c>
       <c r="K30">
         <v>0</v>
@@ -3096,78 +3216,78 @@
         <v>0</v>
       </c>
       <c r="N30">
-        <v>337.20100000000002</v>
+        <v>176.34800000000001</v>
       </c>
       <c r="O30">
-        <v>1768.5229999999999</v>
+        <v>1373.2850000000001</v>
       </c>
       <c r="P30">
-        <v>1431.3219999999999</v>
+        <v>1069.9280000000001</v>
       </c>
       <c r="Q30">
-        <v>-262.90300000000002</v>
+        <v>76.858000000000004</v>
       </c>
       <c r="R30">
-        <v>43100</v>
+        <v>39447</v>
       </c>
       <c r="S30">
-        <v>5600</v>
+        <v>5700</v>
       </c>
       <c r="T30">
-        <v>8964.3690000000006</v>
+        <v>9269.8169999999991</v>
       </c>
       <c r="U30">
-        <v>433.37599999999998</v>
+        <v>245.44399999999999</v>
       </c>
       <c r="V30">
-        <v>473.16</v>
+        <v>274.916</v>
       </c>
       <c r="W30">
-        <v>0</v>
+        <v>-150.66900000000001</v>
       </c>
       <c r="X30">
-        <v>-397.60700000000003</v>
+        <v>-145.47200000000001</v>
       </c>
       <c r="Y30">
         <v>0</v>
       </c>
       <c r="Z30">
-        <v>0</v>
+        <v>-6.0190000000000001</v>
       </c>
       <c r="AA30">
-        <v>389.399</v>
+        <v>167.887</v>
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
-        <v>43190</v>
+        <v>39538</v>
       </c>
       <c r="B31" t="s">
         <v>56</v>
       </c>
       <c r="C31">
-        <v>342.99700000000001</v>
+        <v>512.34199999999998</v>
       </c>
       <c r="D31">
-        <v>689.81899999999996</v>
+        <v>457.37200000000001</v>
       </c>
       <c r="E31">
         <v>0</v>
       </c>
       <c r="F31">
-        <v>496.99200000000002</v>
+        <v>300.62599999999998</v>
       </c>
       <c r="G31">
-        <v>386.00099999999998</v>
+        <v>1364.356</v>
       </c>
       <c r="H31">
-        <v>10685.52</v>
+        <v>10247.764999999999</v>
       </c>
       <c r="I31">
         <v>0</v>
       </c>
       <c r="J31">
-        <v>1432.1089999999999</v>
+        <v>621.71500000000003</v>
       </c>
       <c r="K31">
         <v>0</v>
@@ -3176,81 +3296,81 @@
         <v>0</v>
       </c>
       <c r="M31">
-        <v>-0.44</v>
+        <v>-4.3680000000000003</v>
       </c>
       <c r="N31">
-        <v>337.62099999999998</v>
+        <v>229.68</v>
       </c>
       <c r="O31">
-        <v>1769.73</v>
+        <v>889.52300000000002</v>
       </c>
       <c r="P31">
-        <v>1442.9110000000001</v>
+        <v>644.78800000000001</v>
       </c>
       <c r="Q31">
-        <v>-70.052000000000007</v>
+        <v>481.488</v>
       </c>
       <c r="R31">
-        <v>43190</v>
+        <v>39538</v>
       </c>
       <c r="S31">
         <v>0</v>
       </c>
       <c r="T31">
-        <v>8915.7900000000009</v>
+        <v>9358.2420000000002</v>
       </c>
       <c r="U31">
-        <v>363.03</v>
+        <v>726.93200000000002</v>
       </c>
       <c r="V31">
-        <v>458.51900000000001</v>
+        <v>239.666</v>
       </c>
       <c r="W31">
-        <v>-403.09199999999998</v>
+        <v>-158.47200000000001</v>
       </c>
       <c r="X31">
-        <v>-413.64600000000002</v>
+        <v>-267.51</v>
       </c>
       <c r="Y31">
         <v>0</v>
       </c>
       <c r="Z31">
-        <v>0</v>
+        <v>-32.911000000000001</v>
       </c>
       <c r="AA31">
-        <v>342.99700000000001</v>
+        <v>512.34199999999998</v>
       </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
-        <v>43281</v>
+        <v>39629</v>
       </c>
       <c r="B32" t="s">
         <v>57</v>
       </c>
       <c r="C32">
-        <v>403.80200000000002</v>
+        <v>133.81299999999999</v>
       </c>
       <c r="D32">
-        <v>739.49099999999999</v>
+        <v>412.11200000000002</v>
       </c>
       <c r="E32">
         <v>0</v>
       </c>
       <c r="F32">
-        <v>548.51400000000001</v>
+        <v>286.78699999999998</v>
       </c>
       <c r="G32">
-        <v>361.43</v>
+        <v>1412.328</v>
       </c>
       <c r="H32">
-        <v>10692.962</v>
+        <v>10252.745999999999</v>
       </c>
       <c r="I32">
         <v>0</v>
       </c>
       <c r="J32">
-        <v>1410.473</v>
+        <v>631.01599999999996</v>
       </c>
       <c r="K32">
         <v>0</v>
@@ -3262,37 +3382,37 @@
         <v>0</v>
       </c>
       <c r="N32">
-        <v>361.697</v>
+        <v>215.90199999999999</v>
       </c>
       <c r="O32">
-        <v>1772.17</v>
+        <v>913.53599999999994</v>
       </c>
       <c r="P32">
-        <v>1420.8340000000001</v>
+        <v>651.94100000000003</v>
       </c>
       <c r="Q32">
-        <v>-24.571000000000002</v>
+        <v>48.07</v>
       </c>
       <c r="R32">
-        <v>43281</v>
+        <v>39629</v>
       </c>
       <c r="S32">
         <v>0</v>
       </c>
       <c r="T32">
-        <v>8920.7919999999995</v>
+        <v>9339.2099999999991</v>
       </c>
       <c r="U32">
-        <v>338.41899999999998</v>
+        <v>775.00199999999995</v>
       </c>
       <c r="V32">
-        <v>520.75300000000004</v>
+        <v>271.524</v>
       </c>
       <c r="W32">
-        <v>-403.06099999999998</v>
+        <v>0</v>
       </c>
       <c r="X32">
-        <v>-404.23500000000001</v>
+        <v>-167.23</v>
       </c>
       <c r="Y32">
         <v>0</v>
@@ -3301,39 +3421,39 @@
         <v>0</v>
       </c>
       <c r="AA32">
-        <v>403.80200000000002</v>
+        <v>133.81299999999999</v>
       </c>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
-        <v>43373</v>
+        <v>39721</v>
       </c>
       <c r="B33" t="s">
         <v>58</v>
       </c>
       <c r="C33">
-        <v>378.02699999999999</v>
+        <v>137.33099999999999</v>
       </c>
       <c r="D33">
-        <v>724.13900000000001</v>
+        <v>426.00200000000001</v>
       </c>
       <c r="E33">
         <v>0</v>
       </c>
       <c r="F33">
-        <v>528.59500000000003</v>
+        <v>300.66699999999997</v>
       </c>
       <c r="G33">
-        <v>455.11200000000002</v>
+        <v>807.90800000000002</v>
       </c>
       <c r="H33">
-        <v>10747.94</v>
+        <v>10195.243</v>
       </c>
       <c r="I33">
         <v>0</v>
       </c>
       <c r="J33">
-        <v>1408.029</v>
+        <v>632.08799999999997</v>
       </c>
       <c r="K33">
         <v>0</v>
@@ -3345,78 +3465,78 @@
         <v>0</v>
       </c>
       <c r="N33">
-        <v>419.88900000000001</v>
+        <v>269.30799999999999</v>
       </c>
       <c r="O33">
-        <v>1827.9179999999999</v>
+        <v>901.39599999999996</v>
       </c>
       <c r="P33">
-        <v>1417.9449999999999</v>
+        <v>646.05899999999997</v>
       </c>
       <c r="Q33">
-        <v>93.682000000000002</v>
+        <v>14.292</v>
       </c>
       <c r="R33">
-        <v>43373</v>
+        <v>39721</v>
       </c>
       <c r="S33">
         <v>0</v>
       </c>
       <c r="T33">
-        <v>8920.0220000000008</v>
+        <v>9293.8469999999998</v>
       </c>
       <c r="U33">
-        <v>432.52499999999998</v>
+        <v>789.29399999999998</v>
       </c>
       <c r="V33">
-        <v>592.21</v>
+        <v>298.07100000000003</v>
       </c>
       <c r="W33">
-        <v>-403.24599999999998</v>
+        <v>-158.589</v>
       </c>
       <c r="X33">
-        <v>-399.673</v>
+        <v>-201.84399999999999</v>
       </c>
       <c r="Y33">
         <v>0</v>
       </c>
       <c r="Z33">
-        <v>91.927000000000007</v>
+        <v>-33.752000000000002</v>
       </c>
       <c r="AA33">
-        <v>378.02699999999999</v>
+        <v>137.33099999999999</v>
       </c>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
-        <v>43465</v>
+        <v>39813</v>
       </c>
       <c r="B34" t="s">
         <v>59</v>
       </c>
       <c r="C34">
-        <v>586.20500000000004</v>
+        <v>151.69</v>
       </c>
       <c r="D34">
-        <v>704.32600000000002</v>
+        <v>412.67599999999999</v>
       </c>
       <c r="E34">
         <v>0</v>
       </c>
       <c r="F34">
-        <v>543.952</v>
+        <v>290.54000000000002</v>
       </c>
       <c r="G34">
-        <v>384.01900000000001</v>
+        <v>1233.0619999999999</v>
       </c>
       <c r="H34">
-        <v>10928.27</v>
+        <v>9936.0450000000001</v>
       </c>
       <c r="I34">
         <v>0</v>
       </c>
       <c r="J34">
-        <v>1412.2829999999999</v>
+        <v>643.81100000000004</v>
       </c>
       <c r="K34">
         <v>0</v>
@@ -3428,78 +3548,78 @@
         <v>0</v>
       </c>
       <c r="N34">
-        <v>371.25900000000001</v>
+        <v>212.35300000000001</v>
       </c>
       <c r="O34">
-        <v>1783.5419999999999</v>
+        <v>856.16399999999999</v>
       </c>
       <c r="P34">
-        <v>1412.2829999999999</v>
+        <v>643.81100000000004</v>
       </c>
       <c r="Q34">
-        <v>-71.093000000000004</v>
+        <v>-108.593</v>
       </c>
       <c r="R34">
-        <v>43465</v>
+        <v>39813</v>
       </c>
       <c r="S34">
-        <v>5600</v>
+        <v>5200</v>
       </c>
       <c r="T34">
-        <v>9144.7279999999992</v>
+        <v>9079.8809999999994</v>
       </c>
       <c r="U34">
-        <v>361.21800000000002</v>
+        <v>680.70100000000002</v>
       </c>
       <c r="V34">
-        <v>492.15499999999997</v>
+        <v>267.70999999999998</v>
       </c>
       <c r="W34">
-        <v>-403.28100000000001</v>
+        <v>-157.107</v>
       </c>
       <c r="X34">
-        <v>-402.03399999999999</v>
+        <v>-347.49200000000002</v>
       </c>
       <c r="Y34">
         <v>0</v>
       </c>
       <c r="Z34">
-        <v>0</v>
+        <v>11.961</v>
       </c>
       <c r="AA34">
-        <v>586.20500000000004</v>
+        <v>151.69</v>
       </c>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
-        <v>43555</v>
+        <v>39903</v>
       </c>
       <c r="B35" t="s">
         <v>60</v>
       </c>
       <c r="C35">
-        <v>366.52100000000002</v>
+        <v>217.00200000000001</v>
       </c>
       <c r="D35">
-        <v>706.71</v>
+        <v>419.41800000000001</v>
       </c>
       <c r="E35">
         <v>0</v>
       </c>
       <c r="F35">
-        <v>502.50900000000001</v>
+        <v>289.52100000000002</v>
       </c>
       <c r="G35">
-        <v>241.40299999999999</v>
+        <v>493.4</v>
       </c>
       <c r="H35">
-        <v>10875.016</v>
+        <v>9626.4969999999994</v>
       </c>
       <c r="I35">
         <v>0</v>
       </c>
       <c r="J35">
-        <v>1406.15</v>
+        <v>519.34799999999996</v>
       </c>
       <c r="K35">
         <v>0</v>
@@ -3508,40 +3628,40 @@
         <v>0</v>
       </c>
       <c r="M35">
-        <v>-0.46700000000000003</v>
+        <v>-111.512</v>
       </c>
       <c r="N35">
-        <v>374.245</v>
+        <v>190.64599999999999</v>
       </c>
       <c r="O35">
-        <v>1780.395</v>
+        <v>737.80799999999999</v>
       </c>
       <c r="P35">
-        <v>1406.15</v>
+        <v>527.23500000000001</v>
       </c>
       <c r="Q35">
-        <v>-142.61600000000001</v>
+        <v>-187.30099999999999</v>
       </c>
       <c r="R35">
-        <v>43555</v>
+        <v>39903</v>
       </c>
       <c r="S35">
         <v>0</v>
       </c>
       <c r="T35">
-        <v>9094.6209999999992</v>
+        <v>8888.6890000000003</v>
       </c>
       <c r="U35">
-        <v>217.97300000000001</v>
+        <v>493.4</v>
       </c>
       <c r="V35">
-        <v>469.83199999999999</v>
+        <v>259.86500000000001</v>
       </c>
       <c r="W35">
-        <v>-404.49</v>
+        <v>-156.16200000000001</v>
       </c>
       <c r="X35">
-        <v>-423.005</v>
+        <v>-446.06900000000002</v>
       </c>
       <c r="Y35">
         <v>0</v>
@@ -3550,39 +3670,39 @@
         <v>0</v>
       </c>
       <c r="AA35">
-        <v>366.52100000000002</v>
+        <v>217.00200000000001</v>
       </c>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
-        <v>43646</v>
+        <v>39994</v>
       </c>
       <c r="B36" t="s">
         <v>61</v>
       </c>
       <c r="C36">
-        <v>370.05599999999998</v>
+        <v>199.172</v>
       </c>
       <c r="D36">
-        <v>729.86400000000003</v>
+        <v>406.35700000000003</v>
       </c>
       <c r="E36">
         <v>0</v>
       </c>
       <c r="F36">
-        <v>522.12800000000004</v>
+        <v>285.23</v>
       </c>
       <c r="G36">
-        <v>383.83100000000002</v>
+        <v>1135.3589999999999</v>
       </c>
       <c r="H36">
-        <v>11113.290999999999</v>
+        <v>9703.8359999999993</v>
       </c>
       <c r="I36">
         <v>0</v>
       </c>
       <c r="J36">
-        <v>1907.1389999999999</v>
+        <v>518.97199999999998</v>
       </c>
       <c r="K36">
         <v>0</v>
@@ -3594,37 +3714,37 @@
         <v>0</v>
       </c>
       <c r="N36">
-        <v>411.642</v>
+        <v>225.16499999999999</v>
       </c>
       <c r="O36">
-        <v>2318.7809999999999</v>
+        <v>744.13699999999994</v>
       </c>
       <c r="P36">
-        <v>1908.11</v>
+        <v>524.44000000000005</v>
       </c>
       <c r="Q36">
-        <v>142.428</v>
+        <v>91.46</v>
       </c>
       <c r="R36">
-        <v>43646</v>
+        <v>39994</v>
       </c>
       <c r="S36">
         <v>0</v>
       </c>
       <c r="T36">
-        <v>8794.51</v>
+        <v>8959.6990000000005</v>
       </c>
       <c r="U36">
-        <v>360.33100000000002</v>
+        <v>584.86</v>
       </c>
       <c r="V36">
-        <v>545.35299999999995</v>
+        <v>282.38299999999998</v>
       </c>
       <c r="W36">
-        <v>-403.11799999999999</v>
+        <v>-156.166</v>
       </c>
       <c r="X36">
-        <v>-179.28</v>
+        <v>-163.47</v>
       </c>
       <c r="Y36">
         <v>0</v>
@@ -3633,39 +3753,39 @@
         <v>0</v>
       </c>
       <c r="AA36">
-        <v>370.05599999999998</v>
+        <v>199.172</v>
       </c>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
-        <v>43738</v>
+        <v>40086</v>
       </c>
       <c r="B37" t="s">
         <v>62</v>
       </c>
       <c r="C37">
-        <v>397.94200000000001</v>
+        <v>237.309</v>
       </c>
       <c r="D37">
-        <v>748.38099999999997</v>
+        <v>414.05399999999997</v>
       </c>
       <c r="E37">
         <v>0</v>
       </c>
       <c r="F37">
-        <v>536.11900000000003</v>
+        <v>294.16000000000003</v>
       </c>
       <c r="G37">
-        <v>564.69200000000001</v>
+        <v>670.928</v>
       </c>
       <c r="H37">
-        <v>11413.861000000001</v>
+        <v>9809.375</v>
       </c>
       <c r="I37">
         <v>0</v>
       </c>
       <c r="J37">
-        <v>1891.9449999999999</v>
+        <v>519.37300000000005</v>
       </c>
       <c r="K37">
         <v>0</v>
@@ -3677,78 +3797,78 @@
         <v>0</v>
       </c>
       <c r="N37">
-        <v>445.452</v>
+        <v>238.75</v>
       </c>
       <c r="O37">
-        <v>2337.3969999999999</v>
+        <v>758.12300000000005</v>
       </c>
       <c r="P37">
-        <v>1892.4349999999999</v>
+        <v>521.66200000000003</v>
       </c>
       <c r="Q37">
-        <v>180.86099999999999</v>
+        <v>86.067999999999998</v>
       </c>
       <c r="R37">
-        <v>43738</v>
+        <v>40086</v>
       </c>
       <c r="S37">
         <v>0</v>
       </c>
       <c r="T37">
-        <v>9076.4639999999999</v>
+        <v>9051.2520000000004</v>
       </c>
       <c r="U37">
-        <v>541.35699999999997</v>
+        <v>670.928</v>
       </c>
       <c r="V37">
-        <v>552.46</v>
+        <v>295.28100000000001</v>
       </c>
       <c r="W37">
-        <v>-399.77300000000002</v>
+        <v>-156.179</v>
       </c>
       <c r="X37">
-        <v>-114.1</v>
+        <v>-163.107</v>
       </c>
       <c r="Y37">
         <v>0</v>
       </c>
       <c r="Z37">
-        <v>0</v>
+        <v>-17.824999999999999</v>
       </c>
       <c r="AA37">
-        <v>397.94200000000001</v>
+        <v>237.309</v>
       </c>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
-        <v>43830</v>
+        <v>40178</v>
       </c>
       <c r="B38" t="s">
         <v>63</v>
       </c>
       <c r="C38">
-        <v>386.01499999999999</v>
+        <v>181.13800000000001</v>
       </c>
       <c r="D38">
-        <v>739.7</v>
+        <v>438.42500000000001</v>
       </c>
       <c r="E38">
         <v>0</v>
       </c>
       <c r="F38">
-        <v>550.74699999999996</v>
+        <v>328.13499999999999</v>
       </c>
       <c r="G38">
-        <v>433.55399999999997</v>
+        <v>1325.492</v>
       </c>
       <c r="H38">
-        <v>11365.444</v>
+        <v>9805.6450000000004</v>
       </c>
       <c r="I38">
         <v>0</v>
       </c>
       <c r="J38">
-        <v>1902.4929999999999</v>
+        <v>518.88900000000001</v>
       </c>
       <c r="K38">
         <v>0</v>
@@ -3760,78 +3880,78 @@
         <v>0</v>
       </c>
       <c r="N38">
-        <v>383.28399999999999</v>
+        <v>212.25299999999999</v>
       </c>
       <c r="O38">
-        <v>2285.777</v>
+        <v>731.14200000000005</v>
       </c>
       <c r="P38">
-        <v>1902.4929999999999</v>
+        <v>518.88900000000001</v>
       </c>
       <c r="Q38">
-        <v>-131.13800000000001</v>
+        <v>92.861000000000004</v>
       </c>
       <c r="R38">
-        <v>43830</v>
+        <v>40178</v>
       </c>
       <c r="S38">
-        <v>5900</v>
+        <v>4900</v>
       </c>
       <c r="T38">
-        <v>9079.6669999999995</v>
+        <v>9074.5030000000006</v>
       </c>
       <c r="U38">
-        <v>409.74299999999999</v>
+        <v>763.78899999999999</v>
       </c>
       <c r="V38">
-        <v>499.98899999999998</v>
+        <v>275.32799999999997</v>
       </c>
       <c r="W38">
-        <v>-401.36799999999999</v>
+        <v>-156.15799999999999</v>
       </c>
       <c r="X38">
-        <v>-404.35</v>
+        <v>-165.755</v>
       </c>
       <c r="Y38">
         <v>0</v>
       </c>
       <c r="Z38">
-        <v>11.63</v>
+        <v>0</v>
       </c>
       <c r="AA38">
-        <v>386.01499999999999</v>
+        <v>181.13800000000001</v>
       </c>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
-        <v>43921</v>
+        <v>40268</v>
       </c>
       <c r="B39" t="s">
         <v>64</v>
       </c>
       <c r="C39">
-        <v>366.15600000000001</v>
+        <v>123.961</v>
       </c>
       <c r="D39">
-        <v>740.05</v>
+        <v>399.19200000000001</v>
       </c>
       <c r="E39">
         <v>0</v>
       </c>
       <c r="F39">
-        <v>521.17999999999995</v>
+        <v>258.42200000000003</v>
       </c>
       <c r="G39">
-        <v>742.12800000000004</v>
+        <v>1247.2249999999999</v>
       </c>
       <c r="H39">
-        <v>11825.921</v>
+        <v>9744.4709999999995</v>
       </c>
       <c r="I39">
         <v>0</v>
       </c>
       <c r="J39">
-        <v>2437.1489999999999</v>
+        <v>506.17899999999997</v>
       </c>
       <c r="K39">
         <v>0</v>
@@ -3840,81 +3960,81 @@
         <v>0</v>
       </c>
       <c r="M39">
-        <v>-0.497</v>
+        <v>-1.9650000000000001</v>
       </c>
       <c r="N39">
-        <v>358.56400000000002</v>
+        <v>211.369</v>
       </c>
       <c r="O39">
-        <v>2795.7130000000002</v>
+        <v>922.91399999999999</v>
       </c>
       <c r="P39">
-        <v>2438.6680000000001</v>
+        <v>516.13199999999995</v>
       </c>
       <c r="Q39">
-        <v>308.57400000000001</v>
+        <v>-43.807000000000002</v>
       </c>
       <c r="R39">
-        <v>43921</v>
+        <v>40268</v>
       </c>
       <c r="S39">
         <v>0</v>
       </c>
       <c r="T39">
-        <v>9030.2080000000005</v>
+        <v>8821.5570000000007</v>
       </c>
       <c r="U39">
-        <v>718.42700000000002</v>
+        <v>719.98199999999997</v>
       </c>
       <c r="V39">
-        <v>462.95</v>
+        <v>233.12200000000001</v>
       </c>
       <c r="W39">
-        <v>-401.80700000000002</v>
+        <v>-173.13499999999999</v>
       </c>
       <c r="X39">
-        <v>135.49700000000001</v>
+        <v>-169.86099999999999</v>
       </c>
       <c r="Y39">
         <v>0</v>
       </c>
       <c r="Z39">
-        <v>0</v>
+        <v>-95.248000000000005</v>
       </c>
       <c r="AA39">
-        <v>366.15600000000001</v>
+        <v>123.961</v>
       </c>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
-        <v>44012</v>
+        <v>40359</v>
       </c>
       <c r="B40" t="s">
         <v>65</v>
       </c>
       <c r="C40">
-        <v>314.923</v>
+        <v>125.038</v>
       </c>
       <c r="D40">
-        <v>726.94</v>
+        <v>409.59899999999999</v>
       </c>
       <c r="E40">
         <v>0</v>
       </c>
       <c r="F40">
-        <v>501.33300000000003</v>
+        <v>285.39699999999999</v>
       </c>
       <c r="G40">
-        <v>1292.9449999999999</v>
+        <v>951.36699999999996</v>
       </c>
       <c r="H40">
-        <v>12358.055</v>
+        <v>9569.5130000000008</v>
       </c>
       <c r="I40">
         <v>0</v>
       </c>
       <c r="J40">
-        <v>2456.8519999999999</v>
+        <v>584.31399999999996</v>
       </c>
       <c r="K40">
         <v>0</v>
@@ -3926,78 +4046,78 @@
         <v>0</v>
       </c>
       <c r="N40">
-        <v>396.005</v>
+        <v>240.72</v>
       </c>
       <c r="O40">
-        <v>2852.857</v>
+        <v>825.03399999999999</v>
       </c>
       <c r="P40">
-        <v>2457.8710000000001</v>
+        <v>593.27499999999998</v>
       </c>
       <c r="Q40">
-        <v>550.81700000000001</v>
+        <v>-245.64599999999999</v>
       </c>
       <c r="R40">
-        <v>44012</v>
+        <v>40359</v>
       </c>
       <c r="S40">
         <v>0</v>
       </c>
       <c r="T40">
-        <v>9505.1980000000003</v>
+        <v>8744.4789999999994</v>
       </c>
       <c r="U40">
-        <v>1268.4749999999999</v>
+        <v>474.33600000000001</v>
       </c>
       <c r="V40">
-        <v>539.12400000000002</v>
+        <v>292.49</v>
       </c>
       <c r="W40">
-        <v>-402.786</v>
+        <v>0</v>
       </c>
       <c r="X40">
-        <v>146.68199999999999</v>
+        <v>-459.08100000000002</v>
       </c>
       <c r="Y40">
         <v>0</v>
       </c>
       <c r="Z40">
-        <v>10.803000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA40">
-        <v>314.923</v>
+        <v>125.038</v>
       </c>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
-        <v>44104</v>
+        <v>40451</v>
       </c>
       <c r="B41" t="s">
         <v>66</v>
       </c>
       <c r="C41">
-        <v>324.86700000000002</v>
+        <v>239.35400000000001</v>
       </c>
       <c r="D41">
-        <v>751.89700000000005</v>
+        <v>424.56299999999999</v>
       </c>
       <c r="E41">
         <v>0</v>
       </c>
       <c r="F41">
-        <v>534.43600000000004</v>
+        <v>290.04899999999998</v>
       </c>
       <c r="G41">
-        <v>318.70800000000003</v>
+        <v>1028.8579999999999</v>
       </c>
       <c r="H41">
-        <v>11385.147999999999</v>
+        <v>9651.41</v>
       </c>
       <c r="I41">
         <v>0</v>
       </c>
       <c r="J41">
-        <v>2499.0549999999998</v>
+        <v>584.41300000000001</v>
       </c>
       <c r="K41">
         <v>0</v>
@@ -4009,128 +4129,3448 @@
         <v>0</v>
       </c>
       <c r="N41">
-        <v>434.03899999999999</v>
+        <v>248.73400000000001</v>
       </c>
       <c r="O41">
-        <v>2933.0940000000001</v>
+        <v>833.14700000000005</v>
       </c>
       <c r="P41">
-        <v>2499.5700000000002</v>
+        <v>589.51800000000003</v>
       </c>
       <c r="Q41">
-        <v>-974.23699999999997</v>
+        <v>39.143000000000001</v>
       </c>
       <c r="R41">
-        <v>44104</v>
+        <v>40451</v>
       </c>
       <c r="S41">
         <v>0</v>
       </c>
       <c r="T41">
-        <v>8452.0540000000001</v>
+        <v>8818.2630000000008</v>
       </c>
       <c r="U41">
-        <v>293.95499999999998</v>
+        <v>513.47900000000004</v>
       </c>
       <c r="V41">
-        <v>528.26599999999996</v>
+        <v>296.10199999999998</v>
       </c>
       <c r="W41">
-        <v>-403.72800000000001</v>
+        <v>-193.178</v>
       </c>
       <c r="X41">
-        <v>-1399.0219999999999</v>
+        <v>-200.77799999999999</v>
       </c>
       <c r="Y41">
         <v>0</v>
       </c>
       <c r="Z41">
-        <v>0</v>
+        <v>-9.58</v>
       </c>
       <c r="AA41">
-        <v>324.86700000000002</v>
+        <v>239.35400000000001</v>
       </c>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
-        <v>44196</v>
+        <v>40543</v>
       </c>
       <c r="B42" t="s">
         <v>67</v>
       </c>
       <c r="C42">
+        <v>183.685</v>
+      </c>
+      <c r="D42">
+        <v>421.346</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>304.53899999999999</v>
+      </c>
+      <c r="G42">
+        <v>951.48099999999999</v>
+      </c>
+      <c r="H42">
+        <v>9495.3330000000005</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>568.41700000000003</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>205.76900000000001</v>
+      </c>
+      <c r="O42">
+        <v>774.18600000000004</v>
+      </c>
+      <c r="P42">
+        <v>568.41700000000003</v>
+      </c>
+      <c r="Q42">
+        <v>-57.226999999999997</v>
+      </c>
+      <c r="R42">
+        <v>40543</v>
+      </c>
+      <c r="S42">
+        <v>4900</v>
+      </c>
+      <c r="T42">
+        <v>8721.1470000000008</v>
+      </c>
+      <c r="U42">
+        <v>456.25200000000001</v>
+      </c>
+      <c r="V42">
+        <v>271.50700000000001</v>
+      </c>
+      <c r="W42">
+        <v>0</v>
+      </c>
+      <c r="X42">
+        <v>-302.98899999999998</v>
+      </c>
+      <c r="Y42">
+        <v>0</v>
+      </c>
+      <c r="Z42">
+        <v>0</v>
+      </c>
+      <c r="AA42">
+        <v>183.685</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A43" s="1">
+        <v>40633</v>
+      </c>
+      <c r="B43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43">
+        <v>206.108</v>
+      </c>
+      <c r="D43">
+        <v>433.11700000000002</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>288.96100000000001</v>
+      </c>
+      <c r="G43">
+        <v>1016.8819999999999</v>
+      </c>
+      <c r="H43">
+        <v>9435.5210000000006</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>434.31400000000002</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>-105.535</v>
+      </c>
+      <c r="N43">
+        <v>238.33699999999999</v>
+      </c>
+      <c r="O43">
+        <v>672.65099999999995</v>
+      </c>
+      <c r="P43">
+        <v>461.88200000000001</v>
+      </c>
+      <c r="Q43">
+        <v>-311.14699999999999</v>
+      </c>
+      <c r="R43">
+        <v>40633</v>
+      </c>
+      <c r="S43">
+        <v>0</v>
+      </c>
+      <c r="T43">
+        <v>8762.8700000000008</v>
+      </c>
+      <c r="U43">
+        <v>145.10499999999999</v>
+      </c>
+      <c r="V43">
+        <v>264.81900000000002</v>
+      </c>
+      <c r="W43">
+        <v>-193.505</v>
+      </c>
+      <c r="X43">
+        <v>-291.524</v>
+      </c>
+      <c r="Y43">
+        <v>0</v>
+      </c>
+      <c r="Z43">
+        <v>102.279</v>
+      </c>
+      <c r="AA43">
+        <v>206.108</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A44" s="1">
+        <v>40724</v>
+      </c>
+      <c r="B44" t="s">
+        <v>69</v>
+      </c>
+      <c r="C44">
+        <v>206.44399999999999</v>
+      </c>
+      <c r="D44">
+        <v>429.87599999999998</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>290.86200000000002</v>
+      </c>
+      <c r="G44">
+        <v>775.09299999999996</v>
+      </c>
+      <c r="H44">
+        <v>9272.3359999999993</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>443.66</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>233.72800000000001</v>
+      </c>
+      <c r="O44">
+        <v>677.38800000000003</v>
+      </c>
+      <c r="P44">
+        <v>449.51900000000001</v>
+      </c>
+      <c r="Q44">
+        <v>-0.61799999999999999</v>
+      </c>
+      <c r="R44">
+        <v>40724</v>
+      </c>
+      <c r="S44">
+        <v>0</v>
+      </c>
+      <c r="T44">
+        <v>8594.9480000000003</v>
+      </c>
+      <c r="U44">
+        <v>144.48699999999999</v>
+      </c>
+      <c r="V44">
+        <v>317.64499999999998</v>
+      </c>
+      <c r="W44">
+        <v>-220.108</v>
+      </c>
+      <c r="X44">
+        <v>-408.93900000000002</v>
+      </c>
+      <c r="Y44">
+        <v>0</v>
+      </c>
+      <c r="Z44">
+        <v>-1.274</v>
+      </c>
+      <c r="AA44">
+        <v>206.44399999999999</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A45" s="1">
+        <v>40816</v>
+      </c>
+      <c r="B45" t="s">
+        <v>70</v>
+      </c>
+      <c r="C45">
+        <v>191.13900000000001</v>
+      </c>
+      <c r="D45">
+        <v>460.83199999999999</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>322.25200000000001</v>
+      </c>
+      <c r="G45">
+        <v>627.08199999999999</v>
+      </c>
+      <c r="H45">
+        <v>9085.5429999999997</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>416.21699999999998</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>247.096</v>
+      </c>
+      <c r="O45">
+        <v>663.31299999999999</v>
+      </c>
+      <c r="P45">
+        <v>418.851</v>
+      </c>
+      <c r="Q45">
+        <v>16.245999999999999</v>
+      </c>
+      <c r="R45">
+        <v>40816</v>
+      </c>
+      <c r="S45">
+        <v>0</v>
+      </c>
+      <c r="T45">
+        <v>8422.23</v>
+      </c>
+      <c r="U45">
+        <v>160.733</v>
+      </c>
+      <c r="V45">
+        <v>326.32900000000001</v>
+      </c>
+      <c r="W45">
+        <v>-218.63499999999999</v>
+      </c>
+      <c r="X45">
+        <v>-401.44900000000001</v>
+      </c>
+      <c r="Y45">
+        <v>0</v>
+      </c>
+      <c r="Z45">
+        <v>0</v>
+      </c>
+      <c r="AA45">
+        <v>191.13900000000001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A46" s="1">
+        <v>40908</v>
+      </c>
+      <c r="B46" t="s">
+        <v>71</v>
+      </c>
+      <c r="C46">
+        <v>220.15100000000001</v>
+      </c>
+      <c r="D46">
+        <v>453.99200000000002</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>333.50799999999998</v>
+      </c>
+      <c r="G46">
+        <v>541.70100000000002</v>
+      </c>
+      <c r="H46">
+        <v>8932.5619999999999</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>398.31400000000002</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>210.96600000000001</v>
+      </c>
+      <c r="O46">
+        <v>609.28</v>
+      </c>
+      <c r="P46">
+        <v>398.31400000000002</v>
+      </c>
+      <c r="Q46">
+        <v>-21.725000000000001</v>
+      </c>
+      <c r="R46">
+        <v>40908</v>
+      </c>
+      <c r="S46">
+        <v>5000</v>
+      </c>
+      <c r="T46">
+        <v>8323.2819999999992</v>
+      </c>
+      <c r="U46">
+        <v>139.00800000000001</v>
+      </c>
+      <c r="V46">
+        <v>294.65899999999999</v>
+      </c>
+      <c r="W46">
+        <v>-213.99799999999999</v>
+      </c>
+      <c r="X46">
+        <v>-336.63400000000001</v>
+      </c>
+      <c r="Y46">
+        <v>0</v>
+      </c>
+      <c r="Z46">
+        <v>0</v>
+      </c>
+      <c r="AA46">
+        <v>220.15100000000001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A47" s="1">
+        <v>40999</v>
+      </c>
+      <c r="B47" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47">
+        <v>205.852</v>
+      </c>
+      <c r="D47">
+        <v>448.95</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>297.23899999999998</v>
+      </c>
+      <c r="G47">
+        <v>1034.912</v>
+      </c>
+      <c r="H47">
+        <v>9406.3119999999999</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>346.14400000000001</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>-24.884</v>
+      </c>
+      <c r="N47">
+        <v>716.23500000000001</v>
+      </c>
+      <c r="O47">
+        <v>1062.3789999999999</v>
+      </c>
+      <c r="P47">
+        <v>372.97899999999998</v>
+      </c>
+      <c r="Q47">
+        <v>481.07100000000003</v>
+      </c>
+      <c r="R47">
+        <v>40999</v>
+      </c>
+      <c r="S47">
+        <v>0</v>
+      </c>
+      <c r="T47">
+        <v>8343.9330000000009</v>
+      </c>
+      <c r="U47">
+        <v>620.07899999999995</v>
+      </c>
+      <c r="V47">
+        <v>279.49</v>
+      </c>
+      <c r="W47">
+        <v>-243.24299999999999</v>
+      </c>
+      <c r="X47">
+        <v>256.11700000000002</v>
+      </c>
+      <c r="Y47">
+        <v>0</v>
+      </c>
+      <c r="Z47">
+        <v>0</v>
+      </c>
+      <c r="AA47">
+        <v>205.852</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A48" s="1">
+        <v>41090</v>
+      </c>
+      <c r="B48" t="s">
+        <v>73</v>
+      </c>
+      <c r="C48">
+        <v>198.143</v>
+      </c>
+      <c r="D48">
+        <v>464.38900000000001</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>321.50599999999997</v>
+      </c>
+      <c r="G48">
+        <v>829.62099999999998</v>
+      </c>
+      <c r="H48">
+        <v>9178.9470000000001</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>346.14400000000001</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>249.40899999999999</v>
+      </c>
+      <c r="O48">
+        <v>595.553</v>
+      </c>
+      <c r="P48">
+        <v>368.72800000000001</v>
+      </c>
+      <c r="Q48">
+        <v>-181.60400000000001</v>
+      </c>
+      <c r="R48">
+        <v>41090</v>
+      </c>
+      <c r="S48">
+        <v>0</v>
+      </c>
+      <c r="T48">
+        <v>8583.3940000000002</v>
+      </c>
+      <c r="U48">
+        <v>438.47500000000002</v>
+      </c>
+      <c r="V48">
+        <v>326.28699999999998</v>
+      </c>
+      <c r="W48">
+        <v>-240.19399999999999</v>
+      </c>
+      <c r="X48">
+        <v>-438.21899999999999</v>
+      </c>
+      <c r="Y48">
+        <v>0</v>
+      </c>
+      <c r="Z48">
+        <v>0</v>
+      </c>
+      <c r="AA48">
+        <v>198.143</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A49" s="1">
+        <v>41182</v>
+      </c>
+      <c r="B49" t="s">
+        <v>74</v>
+      </c>
+      <c r="C49">
+        <v>263.892</v>
+      </c>
+      <c r="D49">
+        <v>489.82400000000001</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>348.34899999999999</v>
+      </c>
+      <c r="G49">
+        <v>935.54600000000005</v>
+      </c>
+      <c r="H49">
+        <v>9288.1200000000008</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>346.14400000000001</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>244.505</v>
+      </c>
+      <c r="O49">
+        <v>590.649</v>
+      </c>
+      <c r="P49">
+        <v>347.94299999999998</v>
+      </c>
+      <c r="Q49">
+        <v>97.277000000000001</v>
+      </c>
+      <c r="R49">
+        <v>41182</v>
+      </c>
+      <c r="S49">
+        <v>0</v>
+      </c>
+      <c r="T49">
+        <v>8697.4709999999995</v>
+      </c>
+      <c r="U49">
+        <v>535.75199999999995</v>
+      </c>
+      <c r="V49">
+        <v>349.97800000000001</v>
+      </c>
+      <c r="W49">
+        <v>0</v>
+      </c>
+      <c r="X49">
+        <v>-189.88399999999999</v>
+      </c>
+      <c r="Y49">
+        <v>0</v>
+      </c>
+      <c r="Z49">
+        <v>0</v>
+      </c>
+      <c r="AA49">
+        <v>263.892</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A50" s="1">
+        <v>41274</v>
+      </c>
+      <c r="B50" t="s">
+        <v>75</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <v>428.23399999999998</v>
+      </c>
+      <c r="H50">
+        <v>8793.4030000000002</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>335.82799999999997</v>
+      </c>
+      <c r="K50">
+        <v>133</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>334.71100000000001</v>
+      </c>
+      <c r="O50">
+        <v>670.53899999999999</v>
+      </c>
+      <c r="P50">
+        <v>468.82799999999997</v>
+      </c>
+      <c r="Q50">
+        <v>0</v>
+      </c>
+      <c r="R50">
+        <v>41274</v>
+      </c>
+      <c r="S50">
+        <v>5000</v>
+      </c>
+      <c r="T50">
+        <v>8122.8639999999996</v>
+      </c>
+      <c r="U50">
+        <v>17.239000000000001</v>
+      </c>
+      <c r="V50">
+        <v>0</v>
+      </c>
+      <c r="W50">
+        <v>0</v>
+      </c>
+      <c r="X50">
+        <v>0</v>
+      </c>
+      <c r="Y50">
+        <v>0</v>
+      </c>
+      <c r="Z50">
+        <v>0</v>
+      </c>
+      <c r="AA50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A51" s="1">
+        <v>41364</v>
+      </c>
+      <c r="B51" t="s">
+        <v>76</v>
+      </c>
+      <c r="C51">
+        <v>211.22300000000001</v>
+      </c>
+      <c r="D51">
+        <v>482.54300000000001</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>332.154</v>
+      </c>
+      <c r="G51">
+        <v>796.81700000000001</v>
+      </c>
+      <c r="H51">
+        <v>9101.5509999999995</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>81.222999999999999</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>-326.18599999999998</v>
+      </c>
+      <c r="N51">
+        <v>266.32499999999999</v>
+      </c>
+      <c r="O51">
+        <v>347.548</v>
+      </c>
+      <c r="P51">
+        <v>142.41900000000001</v>
+      </c>
+      <c r="Q51">
+        <v>381.01299999999998</v>
+      </c>
+      <c r="R51">
+        <v>41364</v>
+      </c>
+      <c r="S51">
+        <v>0</v>
+      </c>
+      <c r="T51">
+        <v>8754.0030000000006</v>
+      </c>
+      <c r="U51">
+        <v>398.25200000000001</v>
+      </c>
+      <c r="V51">
+        <v>309.339</v>
+      </c>
+      <c r="W51">
+        <v>-263.733</v>
+      </c>
+      <c r="X51">
+        <v>113.93899999999999</v>
+      </c>
+      <c r="Y51">
+        <v>0</v>
+      </c>
+      <c r="Z51">
+        <v>0</v>
+      </c>
+      <c r="AA51">
+        <v>211.22300000000001</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A52" s="1">
+        <v>41455</v>
+      </c>
+      <c r="B52" t="s">
+        <v>77</v>
+      </c>
+      <c r="C52">
+        <v>260.46300000000002</v>
+      </c>
+      <c r="D52">
+        <v>498.47899999999998</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>355.90800000000002</v>
+      </c>
+      <c r="G52">
+        <v>815.43600000000004</v>
+      </c>
+      <c r="H52">
+        <v>9094.598</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>81.222999999999999</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>249.16800000000001</v>
+      </c>
+      <c r="O52">
+        <v>330.39100000000002</v>
+      </c>
+      <c r="P52">
+        <v>111.688</v>
+      </c>
+      <c r="Q52">
+        <v>12.657999999999999</v>
+      </c>
+      <c r="R52">
+        <v>41455</v>
+      </c>
+      <c r="S52">
+        <v>0</v>
+      </c>
+      <c r="T52">
+        <v>8764.2070000000003</v>
+      </c>
+      <c r="U52">
+        <v>410.91</v>
+      </c>
+      <c r="V52">
+        <v>363.23</v>
+      </c>
+      <c r="W52">
+        <v>-267.26400000000001</v>
+      </c>
+      <c r="X52">
+        <v>-286.77499999999998</v>
+      </c>
+      <c r="Y52">
+        <v>0</v>
+      </c>
+      <c r="Z52">
+        <v>0</v>
+      </c>
+      <c r="AA52">
+        <v>260.46300000000002</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A53" s="1">
+        <v>41547</v>
+      </c>
+      <c r="B53" t="s">
+        <v>78</v>
+      </c>
+      <c r="C53">
+        <v>284.19799999999998</v>
+      </c>
+      <c r="D53">
+        <v>526.226</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>378.423</v>
+      </c>
+      <c r="G53">
+        <v>477.40600000000001</v>
+      </c>
+      <c r="H53">
+        <v>9149.94</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>81.222999999999999</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>261.928</v>
+      </c>
+      <c r="O53">
+        <v>343.15100000000001</v>
+      </c>
+      <c r="P53">
+        <v>100.11799999999999</v>
+      </c>
+      <c r="Q53">
+        <v>-353.94499999999999</v>
+      </c>
+      <c r="R53">
+        <v>41547</v>
+      </c>
+      <c r="S53">
+        <v>0</v>
+      </c>
+      <c r="T53">
+        <v>8806.7890000000007</v>
+      </c>
+      <c r="U53">
+        <v>56.965000000000003</v>
+      </c>
+      <c r="V53">
+        <v>367.09399999999999</v>
+      </c>
+      <c r="W53">
+        <v>-267.303</v>
+      </c>
+      <c r="X53">
+        <v>-280.55700000000002</v>
+      </c>
+      <c r="Y53">
+        <v>0</v>
+      </c>
+      <c r="Z53">
+        <v>-29.751999999999999</v>
+      </c>
+      <c r="AA53">
+        <v>284.19799999999998</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A54" s="1">
+        <v>41639</v>
+      </c>
+      <c r="B54" t="s">
+        <v>79</v>
+      </c>
+      <c r="C54">
+        <v>296.56900000000002</v>
+      </c>
+      <c r="D54">
+        <v>532.077</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>407.67899999999997</v>
+      </c>
+      <c r="G54">
+        <v>447.30799999999999</v>
+      </c>
+      <c r="H54">
+        <v>9876.2659999999996</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>88.953000000000003</v>
+      </c>
+      <c r="K54">
+        <v>750.1</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>968.45799999999997</v>
+      </c>
+      <c r="O54">
+        <v>1057.4110000000001</v>
+      </c>
+      <c r="P54">
+        <v>839.053</v>
+      </c>
+      <c r="Q54">
+        <v>-37.795999999999999</v>
+      </c>
+      <c r="R54">
+        <v>41639</v>
+      </c>
+      <c r="S54">
+        <v>5200</v>
+      </c>
+      <c r="T54">
+        <v>8818.8549999999996</v>
+      </c>
+      <c r="U54">
+        <v>19.169</v>
+      </c>
+      <c r="V54">
+        <v>390.67599999999999</v>
+      </c>
+      <c r="W54">
+        <v>-293.161</v>
+      </c>
+      <c r="X54">
+        <v>437.233</v>
+      </c>
+      <c r="Y54">
+        <v>0</v>
+      </c>
+      <c r="Z54">
+        <v>-75.287999999999997</v>
+      </c>
+      <c r="AA54">
+        <v>296.56900000000002</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A55" s="1">
+        <v>41729</v>
+      </c>
+      <c r="B55" t="s">
+        <v>80</v>
+      </c>
+      <c r="C55">
+        <v>227.196</v>
+      </c>
+      <c r="D55">
+        <v>534.72799999999995</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>368.00900000000001</v>
+      </c>
+      <c r="G55">
+        <v>310.66899999999998</v>
+      </c>
+      <c r="H55">
+        <v>9682.5820000000003</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>62.747</v>
+      </c>
+      <c r="K55">
+        <v>372</v>
+      </c>
+      <c r="L55">
+        <v>-328</v>
+      </c>
+      <c r="M55">
+        <v>-50.81</v>
+      </c>
+      <c r="N55">
+        <v>620.01099999999997</v>
+      </c>
+      <c r="O55">
+        <v>682.75800000000004</v>
+      </c>
+      <c r="P55">
+        <v>460.15</v>
+      </c>
+      <c r="Q55">
+        <v>81.942999999999998</v>
+      </c>
+      <c r="R55">
+        <v>41729</v>
+      </c>
+      <c r="S55">
+        <v>0</v>
+      </c>
+      <c r="T55">
+        <v>8999.8240000000005</v>
+      </c>
+      <c r="U55">
+        <v>101.11199999999999</v>
+      </c>
+      <c r="V55">
+        <v>330.709</v>
+      </c>
+      <c r="W55">
+        <v>-294.226</v>
+      </c>
+      <c r="X55">
+        <v>-421.90899999999999</v>
+      </c>
+      <c r="Y55">
+        <v>0</v>
+      </c>
+      <c r="Z55">
+        <v>0</v>
+      </c>
+      <c r="AA55">
+        <v>227.196</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A56" s="1">
+        <v>41820</v>
+      </c>
+      <c r="B56" t="s">
+        <v>81</v>
+      </c>
+      <c r="C56">
+        <v>276.834</v>
+      </c>
+      <c r="D56">
+        <v>542.53599999999994</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <v>394.67599999999999</v>
+      </c>
+      <c r="G56">
+        <v>595.91099999999994</v>
+      </c>
+      <c r="H56">
+        <v>9946.4570000000003</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>67.644999999999996</v>
+      </c>
+      <c r="K56">
+        <v>322</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>567.327</v>
+      </c>
+      <c r="O56">
+        <v>634.97199999999998</v>
+      </c>
+      <c r="P56">
+        <v>396.98700000000002</v>
+      </c>
+      <c r="Q56">
+        <v>286.87099999999998</v>
+      </c>
+      <c r="R56">
+        <v>41820</v>
+      </c>
+      <c r="S56">
+        <v>0</v>
+      </c>
+      <c r="T56">
+        <v>9311.4850000000006</v>
+      </c>
+      <c r="U56">
+        <v>387.983</v>
+      </c>
+      <c r="V56">
+        <v>395.33699999999999</v>
+      </c>
+      <c r="W56">
+        <v>0</v>
+      </c>
+      <c r="X56">
+        <v>-36.685000000000002</v>
+      </c>
+      <c r="Y56">
+        <v>0</v>
+      </c>
+      <c r="Z56">
+        <v>0</v>
+      </c>
+      <c r="AA56">
+        <v>276.834</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A57" s="1">
+        <v>41912</v>
+      </c>
+      <c r="B57" t="s">
+        <v>82</v>
+      </c>
+      <c r="C57">
+        <v>293.459</v>
+      </c>
+      <c r="D57">
+        <v>581.65599999999995</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>423.08800000000002</v>
+      </c>
+      <c r="G57">
+        <v>98.251999999999995</v>
+      </c>
+      <c r="H57">
+        <v>9624.4680000000008</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>67.646000000000001</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>264.447</v>
+      </c>
+      <c r="O57">
+        <v>332.09300000000002</v>
+      </c>
+      <c r="P57">
+        <v>71.632000000000005</v>
+      </c>
+      <c r="Q57">
+        <v>-289.73099999999999</v>
+      </c>
+      <c r="R57">
+        <v>41912</v>
+      </c>
+      <c r="S57">
+        <v>0</v>
+      </c>
+      <c r="T57">
+        <v>9292.375</v>
+      </c>
+      <c r="U57">
+        <v>98.251999999999995</v>
+      </c>
+      <c r="V57">
+        <v>427.10300000000001</v>
+      </c>
+      <c r="W57">
+        <v>0</v>
+      </c>
+      <c r="X57">
+        <v>-624.37400000000002</v>
+      </c>
+      <c r="Y57">
+        <v>0</v>
+      </c>
+      <c r="Z57">
+        <v>0</v>
+      </c>
+      <c r="AA57">
+        <v>293.459</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A58" s="1">
+        <v>42004</v>
+      </c>
+      <c r="B58" t="s">
+        <v>83</v>
+      </c>
+      <c r="C58">
+        <v>346.71499999999997</v>
+      </c>
+      <c r="D58">
+        <v>570.14300000000003</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>437.76600000000002</v>
+      </c>
+      <c r="G58">
+        <v>187.71199999999999</v>
+      </c>
+      <c r="H58">
+        <v>9818.6759999999995</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>64.364000000000004</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>247.14099999999999</v>
+      </c>
+      <c r="O58">
+        <v>311.505</v>
+      </c>
+      <c r="P58">
+        <v>64.364000000000004</v>
+      </c>
+      <c r="Q58">
+        <v>89.46</v>
+      </c>
+      <c r="R58">
+        <v>42004</v>
+      </c>
+      <c r="S58">
+        <v>5300</v>
+      </c>
+      <c r="T58">
+        <v>9507.1710000000003</v>
+      </c>
+      <c r="U58">
+        <v>187.71199999999999</v>
+      </c>
+      <c r="V58">
+        <v>438.94400000000002</v>
+      </c>
+      <c r="W58">
+        <v>-303.875</v>
+      </c>
+      <c r="X58">
+        <v>-142.447</v>
+      </c>
+      <c r="Y58">
+        <v>0</v>
+      </c>
+      <c r="Z58">
+        <v>0</v>
+      </c>
+      <c r="AA58">
+        <v>346.71499999999997</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A59" s="1">
+        <v>42094</v>
+      </c>
+      <c r="B59" t="s">
+        <v>84</v>
+      </c>
+      <c r="C59">
+        <v>281.78100000000001</v>
+      </c>
+      <c r="D59">
+        <v>581.06299999999999</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <v>409.05099999999999</v>
+      </c>
+      <c r="G59">
+        <v>152.797</v>
+      </c>
+      <c r="H59">
+        <v>9772.0169999999998</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>46.557000000000002</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>-5.5369999999999999</v>
+      </c>
+      <c r="N59">
+        <v>276.53899999999999</v>
+      </c>
+      <c r="O59">
+        <v>323.096</v>
+      </c>
+      <c r="P59">
+        <v>58.656999999999996</v>
+      </c>
+      <c r="Q59">
+        <v>-34.914999999999999</v>
+      </c>
+      <c r="R59">
+        <v>42094</v>
+      </c>
+      <c r="S59">
+        <v>0</v>
+      </c>
+      <c r="T59">
+        <v>9448.9210000000003</v>
+      </c>
+      <c r="U59">
+        <v>152.797</v>
+      </c>
+      <c r="V59">
+        <v>382.49200000000002</v>
+      </c>
+      <c r="W59">
+        <v>-305.863</v>
+      </c>
+      <c r="X59">
+        <v>-322.81400000000002</v>
+      </c>
+      <c r="Y59">
+        <v>0</v>
+      </c>
+      <c r="Z59">
+        <v>0</v>
+      </c>
+      <c r="AA59">
+        <v>281.78100000000001</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A60" s="1">
+        <v>42185</v>
+      </c>
+      <c r="B60" t="s">
+        <v>85</v>
+      </c>
+      <c r="C60">
+        <v>326.40499999999997</v>
+      </c>
+      <c r="D60">
+        <v>596.09500000000003</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <v>434.99799999999999</v>
+      </c>
+      <c r="G60">
+        <v>20.256</v>
+      </c>
+      <c r="H60">
+        <v>9634.7579999999998</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>46.482999999999997</v>
+      </c>
+      <c r="K60">
+        <v>11</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>282.61399999999998</v>
+      </c>
+      <c r="O60">
+        <v>329.09699999999998</v>
+      </c>
+      <c r="P60">
+        <v>58.683</v>
+      </c>
+      <c r="Q60">
+        <v>-132.541</v>
+      </c>
+      <c r="R60">
+        <v>42185</v>
+      </c>
+      <c r="S60">
+        <v>0</v>
+      </c>
+      <c r="T60">
+        <v>9305.6610000000001</v>
+      </c>
+      <c r="U60">
+        <v>20.256</v>
+      </c>
+      <c r="V60">
+        <v>457.13299999999998</v>
+      </c>
+      <c r="W60">
+        <v>-355.77</v>
+      </c>
+      <c r="X60">
+        <v>-495.39499999999998</v>
+      </c>
+      <c r="Y60">
+        <v>0</v>
+      </c>
+      <c r="Z60">
+        <v>0</v>
+      </c>
+      <c r="AA60">
+        <v>326.40499999999997</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A61" s="1">
+        <v>42277</v>
+      </c>
+      <c r="B61" t="s">
+        <v>86</v>
+      </c>
+      <c r="C61">
+        <v>339.56799999999998</v>
+      </c>
+      <c r="D61">
+        <v>631.47500000000002</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <v>466.78899999999999</v>
+      </c>
+      <c r="G61">
+        <v>35.667999999999999</v>
+      </c>
+      <c r="H61">
+        <v>9654.8150000000005</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>55.125</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>296.08199999999999</v>
+      </c>
+      <c r="O61">
+        <v>351.20699999999999</v>
+      </c>
+      <c r="P61">
+        <v>55.725000000000001</v>
+      </c>
+      <c r="Q61">
+        <v>15.412000000000001</v>
+      </c>
+      <c r="R61">
+        <v>42277</v>
+      </c>
+      <c r="S61">
+        <v>0</v>
+      </c>
+      <c r="T61">
+        <v>9303.6080000000002</v>
+      </c>
+      <c r="U61">
+        <v>35.667999999999999</v>
+      </c>
+      <c r="V61">
+        <v>472.18900000000002</v>
+      </c>
+      <c r="W61">
+        <v>-355.69299999999998</v>
+      </c>
+      <c r="X61">
+        <v>-358.63499999999999</v>
+      </c>
+      <c r="Y61">
+        <v>0</v>
+      </c>
+      <c r="Z61">
+        <v>0</v>
+      </c>
+      <c r="AA61">
+        <v>339.56799999999998</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A62" s="1">
+        <v>42369</v>
+      </c>
+      <c r="B62" t="s">
+        <v>87</v>
+      </c>
+      <c r="C62">
+        <v>363.49</v>
+      </c>
+      <c r="D62">
+        <v>637.9</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>500.19099999999997</v>
+      </c>
+      <c r="G62">
+        <v>104.285</v>
+      </c>
+      <c r="H62">
+        <v>9778.232</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>319.01600000000002</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>261.57799999999997</v>
+      </c>
+      <c r="O62">
+        <v>580.59400000000005</v>
+      </c>
+      <c r="P62">
+        <v>319.01600000000002</v>
+      </c>
+      <c r="Q62">
+        <v>68.617000000000004</v>
+      </c>
+      <c r="R62">
+        <v>42369</v>
+      </c>
+      <c r="S62">
+        <v>5300</v>
+      </c>
+      <c r="T62">
+        <v>9197.6380000000008</v>
+      </c>
+      <c r="U62">
+        <v>104.285</v>
+      </c>
+      <c r="V62">
+        <v>436.46499999999997</v>
+      </c>
+      <c r="W62">
+        <v>0</v>
+      </c>
+      <c r="X62">
+        <v>-214.43899999999999</v>
+      </c>
+      <c r="Y62">
+        <v>0</v>
+      </c>
+      <c r="Z62">
+        <v>0</v>
+      </c>
+      <c r="AA62">
+        <v>363.49</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A63" s="1">
+        <v>42460</v>
+      </c>
+      <c r="B63" t="s">
+        <v>88</v>
+      </c>
+      <c r="C63">
+        <v>315.87299999999999</v>
+      </c>
+      <c r="D63">
+        <v>626.35</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <v>453.06400000000002</v>
+      </c>
+      <c r="G63">
+        <v>305.70499999999998</v>
+      </c>
+      <c r="H63">
+        <v>10064.347</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>313.608</v>
+      </c>
+      <c r="K63">
+        <v>0</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <v>-5.952</v>
+      </c>
+      <c r="N63">
+        <v>298.226</v>
+      </c>
+      <c r="O63">
+        <v>611.83399999999995</v>
+      </c>
+      <c r="P63">
+        <v>336.66399999999999</v>
+      </c>
+      <c r="Q63">
+        <v>201.42</v>
+      </c>
+      <c r="R63">
+        <v>42460</v>
+      </c>
+      <c r="S63">
+        <v>0</v>
+      </c>
+      <c r="T63">
+        <v>9452.5130000000008</v>
+      </c>
+      <c r="U63">
+        <v>305.70499999999998</v>
+      </c>
+      <c r="V63">
+        <v>440.98</v>
+      </c>
+      <c r="W63">
+        <v>-357.33499999999998</v>
+      </c>
+      <c r="X63">
+        <v>-76.266000000000005</v>
+      </c>
+      <c r="Y63">
+        <v>0</v>
+      </c>
+      <c r="Z63">
+        <v>0</v>
+      </c>
+      <c r="AA63">
+        <v>315.87299999999999</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A64" s="1">
+        <v>42551</v>
+      </c>
+      <c r="B64" t="s">
+        <v>89</v>
+      </c>
+      <c r="C64">
+        <v>356.65899999999999</v>
+      </c>
+      <c r="D64">
+        <v>644.41499999999996</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <v>472.411</v>
+      </c>
+      <c r="G64">
+        <v>260.12400000000002</v>
+      </c>
+      <c r="H64">
+        <v>9997.1370000000006</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>418.59899999999999</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>324.005</v>
+      </c>
+      <c r="O64">
+        <v>742.60400000000004</v>
+      </c>
+      <c r="P64">
+        <v>436.83499999999998</v>
+      </c>
+      <c r="Q64">
+        <v>-45.581000000000003</v>
+      </c>
+      <c r="R64">
+        <v>42551</v>
+      </c>
+      <c r="S64">
+        <v>0</v>
+      </c>
+      <c r="T64">
+        <v>9254.5329999999994</v>
+      </c>
+      <c r="U64">
+        <v>260.12400000000002</v>
+      </c>
+      <c r="V64">
+        <v>523.73400000000004</v>
+      </c>
+      <c r="W64">
+        <v>-371.71</v>
+      </c>
+      <c r="X64">
+        <v>-444.54500000000002</v>
+      </c>
+      <c r="Y64">
+        <v>0</v>
+      </c>
+      <c r="Z64">
+        <v>67.42</v>
+      </c>
+      <c r="AA64">
+        <v>356.65899999999999</v>
+      </c>
+    </row>
+    <row r="65" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A65" s="1">
+        <v>42643</v>
+      </c>
+      <c r="B65" t="s">
+        <v>90</v>
+      </c>
+      <c r="C65">
+        <v>367.30500000000001</v>
+      </c>
+      <c r="D65">
+        <v>680.38499999999999</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+      <c r="F65">
+        <v>501.75799999999998</v>
+      </c>
+      <c r="G65">
+        <v>57.213000000000001</v>
+      </c>
+      <c r="H65">
+        <v>9865.7690000000002</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>422.18099999999998</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>354.44499999999999</v>
+      </c>
+      <c r="O65">
+        <v>776.62599999999998</v>
+      </c>
+      <c r="P65">
+        <v>430.892</v>
+      </c>
+      <c r="Q65">
+        <v>-202.911</v>
+      </c>
+      <c r="R65">
+        <v>42643</v>
+      </c>
+      <c r="S65">
+        <v>0</v>
+      </c>
+      <c r="T65">
+        <v>9089.143</v>
+      </c>
+      <c r="U65">
+        <v>57.213000000000001</v>
+      </c>
+      <c r="V65">
+        <v>515.32600000000002</v>
+      </c>
+      <c r="W65">
+        <v>-369.71800000000002</v>
+      </c>
+      <c r="X65">
+        <v>-550.54300000000001</v>
+      </c>
+      <c r="Y65">
+        <v>0</v>
+      </c>
+      <c r="Z65">
+        <v>0</v>
+      </c>
+      <c r="AA65">
+        <v>367.30500000000001</v>
+      </c>
+    </row>
+    <row r="66" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A66" s="1">
+        <v>42735</v>
+      </c>
+      <c r="B66" t="s">
+        <v>91</v>
+      </c>
+      <c r="C66">
+        <v>413.73899999999998</v>
+      </c>
+      <c r="D66">
+        <v>662.53</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <v>517.36400000000003</v>
+      </c>
+      <c r="G66">
+        <v>183.68799999999999</v>
+      </c>
+      <c r="H66">
+        <v>10130.338</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>390.74900000000002</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>297.935</v>
+      </c>
+      <c r="O66">
+        <v>688.68399999999997</v>
+      </c>
+      <c r="P66">
+        <v>390.74900000000002</v>
+      </c>
+      <c r="Q66">
+        <v>144.09</v>
+      </c>
+      <c r="R66">
+        <v>42735</v>
+      </c>
+      <c r="S66">
+        <v>5500</v>
+      </c>
+      <c r="T66">
+        <v>9441.6540000000005</v>
+      </c>
+      <c r="U66">
+        <v>183.68799999999999</v>
+      </c>
+      <c r="V66">
+        <v>465.29599999999999</v>
+      </c>
+      <c r="W66">
+        <v>0</v>
+      </c>
+      <c r="X66">
+        <v>-77.471999999999994</v>
+      </c>
+      <c r="Y66">
+        <v>0</v>
+      </c>
+      <c r="Z66">
+        <v>0</v>
+      </c>
+      <c r="AA66">
+        <v>413.73899999999998</v>
+      </c>
+    </row>
+    <row r="67" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A67" s="1">
+        <v>42825</v>
+      </c>
+      <c r="B67" t="s">
+        <v>92</v>
+      </c>
+      <c r="C67">
+        <v>342.44200000000001</v>
+      </c>
+      <c r="D67">
+        <v>664.83799999999997</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="F67">
+        <v>481.93599999999998</v>
+      </c>
+      <c r="G67">
+        <v>120.85899999999999</v>
+      </c>
+      <c r="H67">
+        <v>10083.911</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>394.58499999999998</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67">
+        <v>-0.42</v>
+      </c>
+      <c r="N67">
+        <v>295.81900000000002</v>
+      </c>
+      <c r="O67">
+        <v>690.404</v>
+      </c>
+      <c r="P67">
+        <v>395.86200000000002</v>
+      </c>
+      <c r="Q67">
+        <v>-62.808999999999997</v>
+      </c>
+      <c r="R67">
+        <v>42825</v>
+      </c>
+      <c r="S67">
+        <v>0</v>
+      </c>
+      <c r="T67">
+        <v>9393.5069999999996</v>
+      </c>
+      <c r="U67">
+        <v>120.85899999999999</v>
+      </c>
+      <c r="V67">
+        <v>459.08300000000003</v>
+      </c>
+      <c r="W67">
+        <v>-408.334</v>
+      </c>
+      <c r="X67">
+        <v>-403.78800000000001</v>
+      </c>
+      <c r="Y67">
+        <v>0</v>
+      </c>
+      <c r="Z67">
+        <v>0</v>
+      </c>
+      <c r="AA67">
+        <v>342.44200000000001</v>
+      </c>
+    </row>
+    <row r="68" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A68" s="1">
+        <v>42916</v>
+      </c>
+      <c r="B68" t="s">
+        <v>93</v>
+      </c>
+      <c r="C68">
+        <v>353.702</v>
+      </c>
+      <c r="D68">
+        <v>686.03800000000001</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+      <c r="F68">
+        <v>503.46</v>
+      </c>
+      <c r="G68">
+        <v>358.26600000000002</v>
+      </c>
+      <c r="H68">
+        <v>10365.727000000001</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>419.92099999999999</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>323.77999999999997</v>
+      </c>
+      <c r="O68">
+        <v>743.70100000000002</v>
+      </c>
+      <c r="P68">
+        <v>420.77800000000002</v>
+      </c>
+      <c r="Q68">
+        <v>237.35900000000001</v>
+      </c>
+      <c r="R68">
+        <v>42916</v>
+      </c>
+      <c r="S68">
+        <v>0</v>
+      </c>
+      <c r="T68">
+        <v>9622.0259999999998</v>
+      </c>
+      <c r="U68">
+        <v>358.26600000000002</v>
+      </c>
+      <c r="V68">
+        <v>506.24400000000003</v>
+      </c>
+      <c r="W68">
+        <v>0</v>
+      </c>
+      <c r="X68">
+        <v>-141.435</v>
+      </c>
+      <c r="Y68">
+        <v>0</v>
+      </c>
+      <c r="Z68">
+        <v>0</v>
+      </c>
+      <c r="AA68">
+        <v>353.702</v>
+      </c>
+    </row>
+    <row r="69" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A69" s="1">
+        <v>43008</v>
+      </c>
+      <c r="B69" t="s">
+        <v>94</v>
+      </c>
+      <c r="C69">
+        <v>356.67399999999998</v>
+      </c>
+      <c r="D69">
+        <v>703.57899999999995</v>
+      </c>
+      <c r="E69">
+        <v>0</v>
+      </c>
+      <c r="F69">
+        <v>512.96</v>
+      </c>
+      <c r="G69">
+        <v>694.23299999999995</v>
+      </c>
+      <c r="H69">
+        <v>10765.694</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <v>1425.422</v>
+      </c>
+      <c r="K69">
+        <v>0</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>380.85199999999998</v>
+      </c>
+      <c r="O69">
+        <v>1806.2739999999999</v>
+      </c>
+      <c r="P69">
+        <v>1425.854</v>
+      </c>
+      <c r="Q69">
+        <v>331.83300000000003</v>
+      </c>
+      <c r="R69">
+        <v>43008</v>
+      </c>
+      <c r="S69">
+        <v>0</v>
+      </c>
+      <c r="T69">
+        <v>8959.42</v>
+      </c>
+      <c r="U69">
+        <v>694.23299999999995</v>
+      </c>
+      <c r="V69">
+        <v>537.19200000000001</v>
+      </c>
+      <c r="W69">
+        <v>-409.61</v>
+      </c>
+      <c r="X69">
+        <v>-49.389000000000003</v>
+      </c>
+      <c r="Y69">
+        <v>0</v>
+      </c>
+      <c r="Z69">
+        <v>0</v>
+      </c>
+      <c r="AA69">
+        <v>356.67399999999998</v>
+      </c>
+    </row>
+    <row r="70" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A70" s="1">
+        <v>43100</v>
+      </c>
+      <c r="B70" t="s">
+        <v>95</v>
+      </c>
+      <c r="C70">
+        <v>389.399</v>
+      </c>
+      <c r="D70">
+        <v>682.12800000000004</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>530.24900000000002</v>
+      </c>
+      <c r="G70">
+        <v>456.053</v>
+      </c>
+      <c r="H70">
+        <v>10732.892</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>1431.3219999999999</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>337.20100000000002</v>
+      </c>
+      <c r="O70">
+        <v>1768.5229999999999</v>
+      </c>
+      <c r="P70">
+        <v>1431.3219999999999</v>
+      </c>
+      <c r="Q70">
+        <v>-262.90300000000002</v>
+      </c>
+      <c r="R70">
+        <v>43100</v>
+      </c>
+      <c r="S70">
+        <v>5600</v>
+      </c>
+      <c r="T70">
+        <v>8964.3690000000006</v>
+      </c>
+      <c r="U70">
+        <v>433.37599999999998</v>
+      </c>
+      <c r="V70">
+        <v>473.16</v>
+      </c>
+      <c r="W70">
+        <v>0</v>
+      </c>
+      <c r="X70">
+        <v>-397.60700000000003</v>
+      </c>
+      <c r="Y70">
+        <v>0</v>
+      </c>
+      <c r="Z70">
+        <v>0</v>
+      </c>
+      <c r="AA70">
+        <v>389.399</v>
+      </c>
+    </row>
+    <row r="71" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A71" s="1">
+        <v>43190</v>
+      </c>
+      <c r="B71" t="s">
+        <v>96</v>
+      </c>
+      <c r="C71">
+        <v>342.99700000000001</v>
+      </c>
+      <c r="D71">
+        <v>689.81899999999996</v>
+      </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
+      <c r="F71">
+        <v>496.99200000000002</v>
+      </c>
+      <c r="G71">
+        <v>386.00099999999998</v>
+      </c>
+      <c r="H71">
+        <v>10685.52</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>1432.1089999999999</v>
+      </c>
+      <c r="K71">
+        <v>0</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+      <c r="M71">
+        <v>-0.44</v>
+      </c>
+      <c r="N71">
+        <v>337.62099999999998</v>
+      </c>
+      <c r="O71">
+        <v>1769.73</v>
+      </c>
+      <c r="P71">
+        <v>1442.9110000000001</v>
+      </c>
+      <c r="Q71">
+        <v>-70.052000000000007</v>
+      </c>
+      <c r="R71">
+        <v>43190</v>
+      </c>
+      <c r="S71">
+        <v>0</v>
+      </c>
+      <c r="T71">
+        <v>8915.7900000000009</v>
+      </c>
+      <c r="U71">
+        <v>363.03</v>
+      </c>
+      <c r="V71">
+        <v>458.51900000000001</v>
+      </c>
+      <c r="W71">
+        <v>-403.09199999999998</v>
+      </c>
+      <c r="X71">
+        <v>-413.64600000000002</v>
+      </c>
+      <c r="Y71">
+        <v>0</v>
+      </c>
+      <c r="Z71">
+        <v>0</v>
+      </c>
+      <c r="AA71">
+        <v>342.99700000000001</v>
+      </c>
+    </row>
+    <row r="72" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A72" s="1">
+        <v>43281</v>
+      </c>
+      <c r="B72" t="s">
+        <v>97</v>
+      </c>
+      <c r="C72">
+        <v>403.80200000000002</v>
+      </c>
+      <c r="D72">
+        <v>739.49099999999999</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+      <c r="F72">
+        <v>548.51400000000001</v>
+      </c>
+      <c r="G72">
+        <v>361.43</v>
+      </c>
+      <c r="H72">
+        <v>10692.962</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>1410.473</v>
+      </c>
+      <c r="K72">
+        <v>0</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <v>361.697</v>
+      </c>
+      <c r="O72">
+        <v>1772.17</v>
+      </c>
+      <c r="P72">
+        <v>1420.8340000000001</v>
+      </c>
+      <c r="Q72">
+        <v>-24.571000000000002</v>
+      </c>
+      <c r="R72">
+        <v>43281</v>
+      </c>
+      <c r="S72">
+        <v>0</v>
+      </c>
+      <c r="T72">
+        <v>8920.7919999999995</v>
+      </c>
+      <c r="U72">
+        <v>338.41899999999998</v>
+      </c>
+      <c r="V72">
+        <v>520.75300000000004</v>
+      </c>
+      <c r="W72">
+        <v>-403.06099999999998</v>
+      </c>
+      <c r="X72">
+        <v>-404.23500000000001</v>
+      </c>
+      <c r="Y72">
+        <v>0</v>
+      </c>
+      <c r="Z72">
+        <v>0</v>
+      </c>
+      <c r="AA72">
+        <v>403.80200000000002</v>
+      </c>
+    </row>
+    <row r="73" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A73" s="1">
+        <v>43373</v>
+      </c>
+      <c r="B73" t="s">
+        <v>98</v>
+      </c>
+      <c r="C73">
+        <v>378.02699999999999</v>
+      </c>
+      <c r="D73">
+        <v>724.13900000000001</v>
+      </c>
+      <c r="E73">
+        <v>0</v>
+      </c>
+      <c r="F73">
+        <v>528.59500000000003</v>
+      </c>
+      <c r="G73">
+        <v>455.11200000000002</v>
+      </c>
+      <c r="H73">
+        <v>10747.94</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>1408.029</v>
+      </c>
+      <c r="K73">
+        <v>0</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <v>419.88900000000001</v>
+      </c>
+      <c r="O73">
+        <v>1827.9179999999999</v>
+      </c>
+      <c r="P73">
+        <v>1417.9449999999999</v>
+      </c>
+      <c r="Q73">
+        <v>93.682000000000002</v>
+      </c>
+      <c r="R73">
+        <v>43373</v>
+      </c>
+      <c r="S73">
+        <v>0</v>
+      </c>
+      <c r="T73">
+        <v>8920.0220000000008</v>
+      </c>
+      <c r="U73">
+        <v>432.52499999999998</v>
+      </c>
+      <c r="V73">
+        <v>592.21</v>
+      </c>
+      <c r="W73">
+        <v>-403.24599999999998</v>
+      </c>
+      <c r="X73">
+        <v>-399.673</v>
+      </c>
+      <c r="Y73">
+        <v>0</v>
+      </c>
+      <c r="Z73">
+        <v>91.927000000000007</v>
+      </c>
+      <c r="AA73">
+        <v>378.02699999999999</v>
+      </c>
+    </row>
+    <row r="74" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A74" s="1">
+        <v>43465</v>
+      </c>
+      <c r="B74" t="s">
+        <v>99</v>
+      </c>
+      <c r="C74">
+        <v>586.20500000000004</v>
+      </c>
+      <c r="D74">
+        <v>704.32600000000002</v>
+      </c>
+      <c r="E74">
+        <v>0</v>
+      </c>
+      <c r="F74">
+        <v>543.952</v>
+      </c>
+      <c r="G74">
+        <v>384.01900000000001</v>
+      </c>
+      <c r="H74">
+        <v>10928.27</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>1412.2829999999999</v>
+      </c>
+      <c r="K74">
+        <v>0</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <v>371.25900000000001</v>
+      </c>
+      <c r="O74">
+        <v>1783.5419999999999</v>
+      </c>
+      <c r="P74">
+        <v>1412.2829999999999</v>
+      </c>
+      <c r="Q74">
+        <v>-71.093000000000004</v>
+      </c>
+      <c r="R74">
+        <v>43465</v>
+      </c>
+      <c r="S74">
+        <v>5600</v>
+      </c>
+      <c r="T74">
+        <v>9144.7279999999992</v>
+      </c>
+      <c r="U74">
+        <v>361.21800000000002</v>
+      </c>
+      <c r="V74">
+        <v>492.15499999999997</v>
+      </c>
+      <c r="W74">
+        <v>-403.28100000000001</v>
+      </c>
+      <c r="X74">
+        <v>-402.03399999999999</v>
+      </c>
+      <c r="Y74">
+        <v>0</v>
+      </c>
+      <c r="Z74">
+        <v>0</v>
+      </c>
+      <c r="AA74">
+        <v>586.20500000000004</v>
+      </c>
+    </row>
+    <row r="75" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A75" s="1">
+        <v>43555</v>
+      </c>
+      <c r="B75" t="s">
+        <v>100</v>
+      </c>
+      <c r="C75">
+        <v>366.52100000000002</v>
+      </c>
+      <c r="D75">
+        <v>706.71</v>
+      </c>
+      <c r="E75">
+        <v>0</v>
+      </c>
+      <c r="F75">
+        <v>502.50900000000001</v>
+      </c>
+      <c r="G75">
+        <v>241.40299999999999</v>
+      </c>
+      <c r="H75">
+        <v>10875.016</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>1406.15</v>
+      </c>
+      <c r="K75">
+        <v>0</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+      <c r="M75">
+        <v>-0.46700000000000003</v>
+      </c>
+      <c r="N75">
+        <v>374.245</v>
+      </c>
+      <c r="O75">
+        <v>1780.395</v>
+      </c>
+      <c r="P75">
+        <v>1406.15</v>
+      </c>
+      <c r="Q75">
+        <v>-142.61600000000001</v>
+      </c>
+      <c r="R75">
+        <v>43555</v>
+      </c>
+      <c r="S75">
+        <v>0</v>
+      </c>
+      <c r="T75">
+        <v>9094.6209999999992</v>
+      </c>
+      <c r="U75">
+        <v>217.97300000000001</v>
+      </c>
+      <c r="V75">
+        <v>469.83199999999999</v>
+      </c>
+      <c r="W75">
+        <v>-404.49</v>
+      </c>
+      <c r="X75">
+        <v>-423.005</v>
+      </c>
+      <c r="Y75">
+        <v>0</v>
+      </c>
+      <c r="Z75">
+        <v>0</v>
+      </c>
+      <c r="AA75">
+        <v>366.52100000000002</v>
+      </c>
+    </row>
+    <row r="76" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A76" s="1">
+        <v>43646</v>
+      </c>
+      <c r="B76" t="s">
+        <v>101</v>
+      </c>
+      <c r="C76">
+        <v>370.05599999999998</v>
+      </c>
+      <c r="D76">
+        <v>729.86400000000003</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>522.12800000000004</v>
+      </c>
+      <c r="G76">
+        <v>383.83100000000002</v>
+      </c>
+      <c r="H76">
+        <v>11113.290999999999</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>1907.1389999999999</v>
+      </c>
+      <c r="K76">
+        <v>0</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <v>411.642</v>
+      </c>
+      <c r="O76">
+        <v>2318.7809999999999</v>
+      </c>
+      <c r="P76">
+        <v>1908.11</v>
+      </c>
+      <c r="Q76">
+        <v>142.428</v>
+      </c>
+      <c r="R76">
+        <v>43646</v>
+      </c>
+      <c r="S76">
+        <v>0</v>
+      </c>
+      <c r="T76">
+        <v>8794.51</v>
+      </c>
+      <c r="U76">
+        <v>360.33100000000002</v>
+      </c>
+      <c r="V76">
+        <v>545.35299999999995</v>
+      </c>
+      <c r="W76">
+        <v>-403.11799999999999</v>
+      </c>
+      <c r="X76">
+        <v>-179.28</v>
+      </c>
+      <c r="Y76">
+        <v>0</v>
+      </c>
+      <c r="Z76">
+        <v>0</v>
+      </c>
+      <c r="AA76">
+        <v>370.05599999999998</v>
+      </c>
+    </row>
+    <row r="77" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A77" s="1">
+        <v>43738</v>
+      </c>
+      <c r="B77" t="s">
+        <v>102</v>
+      </c>
+      <c r="C77">
+        <v>397.94200000000001</v>
+      </c>
+      <c r="D77">
+        <v>748.38099999999997</v>
+      </c>
+      <c r="E77">
+        <v>0</v>
+      </c>
+      <c r="F77">
+        <v>536.11900000000003</v>
+      </c>
+      <c r="G77">
+        <v>564.69200000000001</v>
+      </c>
+      <c r="H77">
+        <v>11413.861000000001</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <v>1891.9449999999999</v>
+      </c>
+      <c r="K77">
+        <v>0</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <v>445.452</v>
+      </c>
+      <c r="O77">
+        <v>2337.3969999999999</v>
+      </c>
+      <c r="P77">
+        <v>1892.4349999999999</v>
+      </c>
+      <c r="Q77">
+        <v>180.86099999999999</v>
+      </c>
+      <c r="R77">
+        <v>43738</v>
+      </c>
+      <c r="S77">
+        <v>0</v>
+      </c>
+      <c r="T77">
+        <v>9076.4639999999999</v>
+      </c>
+      <c r="U77">
+        <v>541.35699999999997</v>
+      </c>
+      <c r="V77">
+        <v>552.46</v>
+      </c>
+      <c r="W77">
+        <v>-399.77300000000002</v>
+      </c>
+      <c r="X77">
+        <v>-114.1</v>
+      </c>
+      <c r="Y77">
+        <v>0</v>
+      </c>
+      <c r="Z77">
+        <v>0</v>
+      </c>
+      <c r="AA77">
+        <v>397.94200000000001</v>
+      </c>
+    </row>
+    <row r="78" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A78" s="1">
+        <v>43830</v>
+      </c>
+      <c r="B78" t="s">
+        <v>103</v>
+      </c>
+      <c r="C78">
+        <v>386.01499999999999</v>
+      </c>
+      <c r="D78">
+        <v>739.7</v>
+      </c>
+      <c r="E78">
+        <v>0</v>
+      </c>
+      <c r="F78">
+        <v>550.74699999999996</v>
+      </c>
+      <c r="G78">
+        <v>441.05399999999997</v>
+      </c>
+      <c r="H78">
+        <v>11365.444</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <v>1902.4929999999999</v>
+      </c>
+      <c r="K78">
+        <v>0</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="N78">
+        <v>383.28399999999999</v>
+      </c>
+      <c r="O78">
+        <v>2285.777</v>
+      </c>
+      <c r="P78">
+        <v>1902.4929999999999</v>
+      </c>
+      <c r="Q78">
+        <v>-131.13800000000001</v>
+      </c>
+      <c r="R78">
+        <v>43830</v>
+      </c>
+      <c r="S78">
+        <v>5900</v>
+      </c>
+      <c r="T78">
+        <v>9079.6669999999995</v>
+      </c>
+      <c r="U78">
+        <v>409.74299999999999</v>
+      </c>
+      <c r="V78">
+        <v>499.98899999999998</v>
+      </c>
+      <c r="W78">
+        <v>-401.36799999999999</v>
+      </c>
+      <c r="X78">
+        <v>-404.35</v>
+      </c>
+      <c r="Y78">
+        <v>0</v>
+      </c>
+      <c r="Z78">
+        <v>11.63</v>
+      </c>
+      <c r="AA78">
+        <v>386.01499999999999</v>
+      </c>
+    </row>
+    <row r="79" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A79" s="1">
+        <v>43921</v>
+      </c>
+      <c r="B79" t="s">
+        <v>104</v>
+      </c>
+      <c r="C79">
+        <v>366.15600000000001</v>
+      </c>
+      <c r="D79">
+        <v>740.05</v>
+      </c>
+      <c r="E79">
+        <v>0</v>
+      </c>
+      <c r="F79">
+        <v>521.17999999999995</v>
+      </c>
+      <c r="G79">
+        <v>742.12800000000004</v>
+      </c>
+      <c r="H79">
+        <v>11825.921</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>2437.1489999999999</v>
+      </c>
+      <c r="K79">
+        <v>0</v>
+      </c>
+      <c r="L79">
+        <v>0</v>
+      </c>
+      <c r="M79">
+        <v>-0.497</v>
+      </c>
+      <c r="N79">
+        <v>358.56400000000002</v>
+      </c>
+      <c r="O79">
+        <v>2795.7130000000002</v>
+      </c>
+      <c r="P79">
+        <v>2438.6680000000001</v>
+      </c>
+      <c r="Q79">
+        <v>308.57400000000001</v>
+      </c>
+      <c r="R79">
+        <v>43921</v>
+      </c>
+      <c r="S79">
+        <v>0</v>
+      </c>
+      <c r="T79">
+        <v>9030.2080000000005</v>
+      </c>
+      <c r="U79">
+        <v>718.42700000000002</v>
+      </c>
+      <c r="V79">
+        <v>462.95</v>
+      </c>
+      <c r="W79">
+        <v>-401.80700000000002</v>
+      </c>
+      <c r="X79">
+        <v>135.49700000000001</v>
+      </c>
+      <c r="Y79">
+        <v>0</v>
+      </c>
+      <c r="Z79">
+        <v>0</v>
+      </c>
+      <c r="AA79">
+        <v>366.15600000000001</v>
+      </c>
+    </row>
+    <row r="80" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A80" s="1">
+        <v>44012</v>
+      </c>
+      <c r="B80" t="s">
+        <v>105</v>
+      </c>
+      <c r="C80">
+        <v>314.923</v>
+      </c>
+      <c r="D80">
+        <v>726.94</v>
+      </c>
+      <c r="E80">
+        <v>0</v>
+      </c>
+      <c r="F80">
+        <v>501.33300000000003</v>
+      </c>
+      <c r="G80">
+        <v>1292.9449999999999</v>
+      </c>
+      <c r="H80">
+        <v>12358.055</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+      <c r="J80">
+        <v>2456.8519999999999</v>
+      </c>
+      <c r="K80">
+        <v>0</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="M80">
+        <v>0</v>
+      </c>
+      <c r="N80">
+        <v>396.005</v>
+      </c>
+      <c r="O80">
+        <v>2852.857</v>
+      </c>
+      <c r="P80">
+        <v>2457.8710000000001</v>
+      </c>
+      <c r="Q80">
+        <v>550.81700000000001</v>
+      </c>
+      <c r="R80">
+        <v>44012</v>
+      </c>
+      <c r="S80">
+        <v>0</v>
+      </c>
+      <c r="T80">
+        <v>9505.1980000000003</v>
+      </c>
+      <c r="U80">
+        <v>1268.4749999999999</v>
+      </c>
+      <c r="V80">
+        <v>539.12400000000002</v>
+      </c>
+      <c r="W80">
+        <v>-402.786</v>
+      </c>
+      <c r="X80">
+        <v>146.68199999999999</v>
+      </c>
+      <c r="Y80">
+        <v>0</v>
+      </c>
+      <c r="Z80">
+        <v>10.803000000000001</v>
+      </c>
+      <c r="AA80">
+        <v>314.923</v>
+      </c>
+    </row>
+    <row r="81" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A81" s="1">
+        <v>44104</v>
+      </c>
+      <c r="B81" t="s">
+        <v>106</v>
+      </c>
+      <c r="C81">
+        <v>324.86700000000002</v>
+      </c>
+      <c r="D81">
+        <v>751.89700000000005</v>
+      </c>
+      <c r="E81">
+        <v>0</v>
+      </c>
+      <c r="F81">
+        <v>534.43600000000004</v>
+      </c>
+      <c r="G81">
+        <v>318.70800000000003</v>
+      </c>
+      <c r="H81">
+        <v>11385.147999999999</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="J81">
+        <v>2499.0549999999998</v>
+      </c>
+      <c r="K81">
+        <v>0</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+      <c r="M81">
+        <v>0</v>
+      </c>
+      <c r="N81">
+        <v>434.03899999999999</v>
+      </c>
+      <c r="O81">
+        <v>2933.0940000000001</v>
+      </c>
+      <c r="P81">
+        <v>2499.5700000000002</v>
+      </c>
+      <c r="Q81">
+        <v>-974.23699999999997</v>
+      </c>
+      <c r="R81">
+        <v>44104</v>
+      </c>
+      <c r="S81">
+        <v>0</v>
+      </c>
+      <c r="T81">
+        <v>8452.0540000000001</v>
+      </c>
+      <c r="U81">
+        <v>293.95499999999998</v>
+      </c>
+      <c r="V81">
+        <v>528.26599999999996</v>
+      </c>
+      <c r="W81">
+        <v>-403.72800000000001</v>
+      </c>
+      <c r="X81">
+        <v>-1399.0219999999999</v>
+      </c>
+      <c r="Y81">
+        <v>0</v>
+      </c>
+      <c r="Z81">
+        <v>0</v>
+      </c>
+      <c r="AA81">
+        <v>324.86700000000002</v>
+      </c>
+    </row>
+    <row r="82" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A82" s="1">
+        <v>44196</v>
+      </c>
+      <c r="B82" t="s">
+        <v>107</v>
+      </c>
+      <c r="C82">
         <v>351.267</v>
       </c>
-      <c r="D42">
+      <c r="D82">
         <v>776.678</v>
       </c>
-      <c r="E42">
-        <v>0</v>
-      </c>
-      <c r="F42">
+      <c r="E82">
+        <v>0</v>
+      </c>
+      <c r="F82">
         <v>571.154</v>
       </c>
-      <c r="G42">
+      <c r="G82">
         <v>282.60000000000002</v>
       </c>
-      <c r="H42">
+      <c r="H82">
         <v>11816.546</v>
       </c>
-      <c r="I42">
-        <v>0</v>
-      </c>
-      <c r="J42">
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
         <v>2543.1410000000001</v>
       </c>
-      <c r="K42">
-        <v>0</v>
-      </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="M42">
-        <v>0</v>
-      </c>
-      <c r="N42">
+      <c r="K82">
+        <v>0</v>
+      </c>
+      <c r="L82">
+        <v>0</v>
+      </c>
+      <c r="M82">
+        <v>0</v>
+      </c>
+      <c r="N82">
         <v>396.50599999999997</v>
       </c>
-      <c r="O42">
+      <c r="O82">
         <v>2939.6469999999999</v>
       </c>
-      <c r="P42">
+      <c r="P82">
         <v>2544.9920000000002</v>
       </c>
-      <c r="Q42">
+      <c r="Q82">
         <v>-36.107999999999997</v>
       </c>
-      <c r="R42">
+      <c r="R82">
         <v>44196</v>
       </c>
-      <c r="S42">
+      <c r="S82">
         <v>5400</v>
       </c>
-      <c r="T42">
+      <c r="T82">
         <v>8876.8989999999994</v>
       </c>
-      <c r="U42">
+      <c r="U82">
         <v>257.56</v>
       </c>
-      <c r="V42">
+      <c r="V82">
         <v>512.56200000000001</v>
       </c>
-      <c r="W42">
+      <c r="W82">
         <v>-398.108</v>
       </c>
-      <c r="X42">
+      <c r="X82">
         <v>41.127000000000002</v>
       </c>
-      <c r="Y42">
-        <v>0</v>
-      </c>
-      <c r="Z42">
+      <c r="Y82">
+        <v>0</v>
+      </c>
+      <c r="Z82">
         <v>13.855</v>
       </c>
-      <c r="AA42">
+      <c r="AA82">
         <v>351.267</v>
       </c>
     </row>
